--- a/R/data/BFI231106_tmp.xlsx
+++ b/R/data/BFI231106_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="515">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1106,6 +1106,456 @@
   </si>
   <si>
     <t>정현호</t>
+  </si>
+  <si>
+    <t>ehgnsdl5110312@gmail.com</t>
+  </si>
+  <si>
+    <t>김도훈</t>
+  </si>
+  <si>
+    <t>deo333333@naver.com</t>
+  </si>
+  <si>
+    <t>서대철</t>
+  </si>
+  <si>
+    <t>sojeongy39@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소정</t>
+  </si>
+  <si>
+    <t>dnjsgmlwjd1020@naver.com</t>
+  </si>
+  <si>
+    <t>원희정</t>
+  </si>
+  <si>
+    <t>rlaekdp1505@naver.com</t>
+  </si>
+  <si>
+    <t>김다예</t>
+  </si>
+  <si>
+    <t>sallylee12300@gmail.com</t>
+  </si>
+  <si>
+    <t>이상은</t>
+  </si>
+  <si>
+    <t>tlswnals04@naver.com</t>
+  </si>
+  <si>
+    <t>신주민</t>
+  </si>
+  <si>
+    <t>tvkim0122@gmail.com</t>
+  </si>
+  <si>
+    <t>김태빈</t>
+  </si>
+  <si>
+    <t>ymun018@naver.com</t>
+  </si>
+  <si>
+    <t>문윤식</t>
+  </si>
+  <si>
+    <t>whtjsals159@naver.com</t>
+  </si>
+  <si>
+    <t>조선민</t>
+  </si>
+  <si>
+    <t>bluejjun619@naver.com</t>
+  </si>
+  <si>
+    <t>윤영준</t>
+  </si>
+  <si>
+    <t>gimchaemin97@gmail.com</t>
+  </si>
+  <si>
+    <t>김채민</t>
+  </si>
+  <si>
+    <t>mukyx00@naver.com</t>
+  </si>
+  <si>
+    <t>엄찬우</t>
+  </si>
+  <si>
+    <t>dlekals56@gmail.com</t>
+  </si>
+  <si>
+    <t>이다민</t>
+  </si>
+  <si>
+    <t>tpdls1323@naver.com</t>
+  </si>
+  <si>
+    <t>장세인</t>
+  </si>
+  <si>
+    <t>mhw040414@naver.com</t>
+  </si>
+  <si>
+    <t>문희원</t>
+  </si>
+  <si>
+    <t>kimcr0678@gmail.com</t>
+  </si>
+  <si>
+    <t>김채령</t>
+  </si>
+  <si>
+    <t>good011218@naver.com</t>
+  </si>
+  <si>
+    <t>최승혁</t>
+  </si>
+  <si>
+    <t>jkv0125@gmail.com</t>
+  </si>
+  <si>
+    <t>조경빈</t>
+  </si>
+  <si>
+    <t>jjedalee@gmail.com</t>
+  </si>
+  <si>
+    <t>정재은</t>
+  </si>
+  <si>
+    <t>se0jin1112@naver.com</t>
+  </si>
+  <si>
+    <t>김서진</t>
+  </si>
+  <si>
+    <t>namhyunwoo1004@gmail.com</t>
+  </si>
+  <si>
+    <t>남현우</t>
+  </si>
+  <si>
+    <t>juh0611@naver.com</t>
+  </si>
+  <si>
+    <t>신주희</t>
+  </si>
+  <si>
+    <t>llyrlyrll@naver.com</t>
+  </si>
+  <si>
+    <t>이예린</t>
+  </si>
+  <si>
+    <t>wlals0817@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">환경생명공학과 </t>
+  </si>
+  <si>
+    <t>정지민</t>
+  </si>
+  <si>
+    <t>digiphk12@naver.com</t>
+  </si>
+  <si>
+    <t>박현규</t>
+  </si>
+  <si>
+    <t>nic0903930@gmail.com</t>
+  </si>
+  <si>
+    <t>나임채</t>
+  </si>
+  <si>
+    <t>tyu7626@naver.com</t>
+  </si>
+  <si>
+    <t>최서영</t>
+  </si>
+  <si>
+    <t>679qmg@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜원</t>
+  </si>
+  <si>
+    <t>gusdud062256@gmail.com</t>
+  </si>
+  <si>
+    <t>정보과학대학 콘텐츠IT</t>
+  </si>
+  <si>
+    <t>장현일</t>
+  </si>
+  <si>
+    <t>se0870@naver.com</t>
+  </si>
+  <si>
+    <t>미디어스쿨</t>
+  </si>
+  <si>
+    <t>이세은</t>
+  </si>
+  <si>
+    <t>kimtaejin3882@gmail.com</t>
+  </si>
+  <si>
+    <t>김태진</t>
+  </si>
+  <si>
+    <t>lceda1011@naver.com</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>onjng0918@gmail.com</t>
+  </si>
+  <si>
+    <t>오윤정</t>
+  </si>
+  <si>
+    <t>theyubin@naver.com</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>implibra88@gmail.com</t>
+  </si>
+  <si>
+    <t>김유진</t>
+  </si>
+  <si>
+    <t>20232565@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이지안</t>
+  </si>
+  <si>
+    <t>dong9mi24k@naver.com</t>
+  </si>
+  <si>
+    <t>이동금</t>
+  </si>
+  <si>
+    <t>odh4743@naver.com</t>
+  </si>
+  <si>
+    <t>오동훈</t>
+  </si>
+  <si>
+    <t>ridsigdog@gmail.com</t>
+  </si>
+  <si>
+    <t>박건민</t>
+  </si>
+  <si>
+    <t>jmc0122@naver.com</t>
+  </si>
+  <si>
+    <t>정원혁</t>
+  </si>
+  <si>
+    <t>lsk8424@naver.com</t>
+  </si>
+  <si>
+    <t>이상기</t>
+  </si>
+  <si>
+    <t>kilucas45@gmail.com</t>
+  </si>
+  <si>
+    <t>김동건</t>
+  </si>
+  <si>
+    <t>sang010516@naver.com</t>
+  </si>
+  <si>
+    <t>최상은</t>
+  </si>
+  <si>
+    <t>abc810852@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학</t>
+  </si>
+  <si>
+    <t>심지환</t>
+  </si>
+  <si>
+    <t>fodhzks1@naver.com</t>
+  </si>
+  <si>
+    <t>pjw4063@naver.com</t>
+  </si>
+  <si>
+    <t>박지원</t>
+  </si>
+  <si>
+    <t>uy7249@gmail.com</t>
+  </si>
+  <si>
+    <t>이다인</t>
+  </si>
+  <si>
+    <t>wlsgml9808@naver.com</t>
+  </si>
+  <si>
+    <t>이진희</t>
+  </si>
+  <si>
+    <t>lsh0409210@gmail.com</t>
+  </si>
+  <si>
+    <t>이시은</t>
+  </si>
+  <si>
+    <t>tjfud05@naver.com</t>
+  </si>
+  <si>
+    <t>박서령</t>
+  </si>
+  <si>
+    <t>yonj2sj@naver.com</t>
+  </si>
+  <si>
+    <t>양은채</t>
+  </si>
+  <si>
+    <t>sjb081235@naver.com</t>
+  </si>
+  <si>
+    <t>신종범</t>
+  </si>
+  <si>
+    <t>psjj3840@gmail.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>steve0711@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>isol62@naver.com</t>
+  </si>
+  <si>
+    <t>육이솔</t>
+  </si>
+  <si>
+    <t>dbswlals0326@naver.com</t>
+  </si>
+  <si>
+    <t>윤지민</t>
+  </si>
+  <si>
+    <t>citchchache@gmail.com</t>
+  </si>
+  <si>
+    <t>공병우</t>
+  </si>
+  <si>
+    <t>minjoo902@naver.com</t>
+  </si>
+  <si>
+    <t>김민주</t>
+  </si>
+  <si>
+    <t>sujongchoe8@gmail.com</t>
+  </si>
+  <si>
+    <t>최수종</t>
+  </si>
+  <si>
+    <t>suin207846@naver.com</t>
+  </si>
+  <si>
+    <t>안수인</t>
+  </si>
+  <si>
+    <t>catboom5329@gmail.com</t>
+  </si>
+  <si>
+    <t>박주현</t>
+  </si>
+  <si>
+    <t>jeongsuyeon749@naver.com</t>
+  </si>
+  <si>
+    <t>정수연</t>
+  </si>
+  <si>
+    <t>lelle0514@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>jeongseo.kim25@gmail.com</t>
+  </si>
+  <si>
+    <t>김정서</t>
+  </si>
+  <si>
+    <t>aoa0226@naver.com</t>
+  </si>
+  <si>
+    <t>강문원</t>
+  </si>
+  <si>
+    <t>meldek98@gmail.com</t>
+  </si>
+  <si>
+    <t>강비성</t>
+  </si>
+  <si>
+    <t>donghyunkim0404@naver.com</t>
+  </si>
+  <si>
+    <t>사회학과</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>qj2qmf@naver.com</t>
+  </si>
+  <si>
+    <t>원주현</t>
+  </si>
+  <si>
+    <t>africa00788@gmail.com</t>
+  </si>
+  <si>
+    <t>구도희</t>
+  </si>
+  <si>
+    <t>a01031309196@gmail.com</t>
+  </si>
+  <si>
+    <t>김현채</t>
+  </si>
+  <si>
+    <t>chlgpals2507@naver.com</t>
+  </si>
+  <si>
+    <t>최혜민</t>
+  </si>
+  <si>
+    <t>total7146@gmail.com</t>
+  </si>
+  <si>
+    <t>안정하</t>
   </si>
 </sst>
 </file>
@@ -13078,6 +13528,6065 @@
         <v>35</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>45237.9947279051</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D142" s="3">
+        <v>2.0212708E7</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O142" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P142" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q142" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R142" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S142" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T142" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U142" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V142" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W142" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X142" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y142" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z142" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA142" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>45237.9981027662</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2.0182889E7</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M143" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O143" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P143" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q143" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R143" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S143" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T143" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U143" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V143" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W143" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X143" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y143" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z143" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA143" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>45238.004645266206</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2.0222987E7</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M144" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N144" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P144" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q144" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R144" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S144" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T144" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U144" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V144" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W144" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X144" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y144" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z144" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA144" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>45238.14733719907</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D145" s="3">
+        <v>2.0231057E7</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M145" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N145" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O145" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P145" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q145" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R145" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S145" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T145" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U145" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V145" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W145" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X145" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y145" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z145" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA145" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>45238.335927719905</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2.0222908E7</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M146" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N146" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O146" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P146" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q146" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R146" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S146" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T146" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U146" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V146" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W146" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X146" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y146" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z146" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA146" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
+        <v>45238.403455949076</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" s="3">
+        <v>2.0226143E7</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M147" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P147" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q147" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R147" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S147" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T147" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U147" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V147" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W147" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X147" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y147" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z147" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA147" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>45238.50417833333</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D148" s="3">
+        <v>2.023674E7</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N148" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O148" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P148" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q148" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R148" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S148" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T148" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U148" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V148" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W148" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X148" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y148" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z148" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA148" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>45238.52122376158</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2.0203314E7</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N149" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O149" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P149" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q149" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R149" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="S149" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T149" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U149" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V149" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W149" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X149" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y149" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z149" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA149" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>45238.54212266204</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D150" s="3">
+        <v>2.023516E7</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q150" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R150" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S150" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T150" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U150" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="V150" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W150" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X150" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y150" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z150" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA150" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>45238.55169478009</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D151" s="3">
+        <v>2.0236778E7</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P151" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q151" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R151" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="S151" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="T151" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="U151" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V151" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W151" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X151" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y151" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z151" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA151" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>45238.55472306713</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2.0226758E7</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N152" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O152" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P152" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q152" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R152" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S152" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T152" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U152" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V152" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W152" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X152" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y152" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z152" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA152" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>45238.59233975694</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D153" s="3">
+        <v>2.0236231E7</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N153" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O153" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P153" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q153" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R153" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S153" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T153" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U153" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V153" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W153" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X153" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y153" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z153" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA153" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>45238.60780038194</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2.0202547E7</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N154" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P154" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q154" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R154" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S154" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T154" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U154" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V154" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W154" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X154" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y154" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z154" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA154" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>45238.62148554398</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D155" s="3">
+        <v>2.0211526E7</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N155" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P155" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q155" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R155" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S155" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T155" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U155" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V155" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W155" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X155" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y155" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z155" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA155" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>45238.637901469905</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2.0233245E7</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O156" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P156" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q156" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R156" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S156" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T156" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U156" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V156" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W156" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X156" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y156" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z156" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA156" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>45238.645993541664</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D157" s="3">
+        <v>2.023161E7</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P157" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q157" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R157" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S157" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T157" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U157" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V157" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W157" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X157" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y157" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z157" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA157" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>45238.67544341435</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2.023623E7</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O158" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P158" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q158" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R158" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S158" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T158" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U158" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V158" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W158" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X158" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y158" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z158" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA158" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>45238.6811337963</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D159" s="3">
+        <v>2.0205261E7</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P159" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q159" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R159" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S159" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T159" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U159" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V159" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W159" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X159" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y159" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z159" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA159" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>45238.70028898148</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2.0212135E7</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M160" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N160" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P160" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q160" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R160" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S160" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T160" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U160" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V160" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W160" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X160" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y160" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z160" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA160" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>45238.70573461805</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D161" s="3">
+        <v>2.0232134E7</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M161" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N161" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O161" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P161" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q161" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R161" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S161" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T161" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U161" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V161" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W161" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X161" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y161" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z161" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA161" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>45238.71001866898</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D162" s="3">
+        <v>2.0233806E7</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N162" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O162" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P162" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q162" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R162" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S162" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T162" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U162" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V162" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W162" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X162" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y162" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z162" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA162" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>45238.733753946755</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D163" s="3">
+        <v>2.0202948E7</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R163" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S163" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T163" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U163" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V163" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W163" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X163" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y163" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z163" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA163" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>45238.7341537037</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D164" s="3">
+        <v>2.0221051E7</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N164" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O164" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P164" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q164" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R164" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S164" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T164" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U164" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V164" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W164" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X164" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y164" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z164" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA164" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>45238.78190640046</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D165" s="3">
+        <v>2.0232428E7</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M165" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N165" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O165" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P165" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q165" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R165" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S165" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T165" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U165" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V165" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W165" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X165" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y165" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z165" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA165" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>45238.782954571754</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2.0233734E7</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O166" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P166" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q166" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R166" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S166" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T166" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U166" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V166" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W166" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X166" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y166" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z166" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA166" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>45238.78516424769</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D167" s="3">
+        <v>2.0162617E7</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N167" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O167" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P167" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q167" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R167" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S167" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T167" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U167" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V167" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W167" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X167" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y167" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z167" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA167" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>45238.79408761574</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2.0222409E7</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O168" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P168" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q168" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R168" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S168" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T168" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U168" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V168" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W168" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X168" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y168" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z168" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA168" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>45238.8491743287</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D169" s="3">
+        <v>2.0232636E7</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O169" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P169" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q169" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R169" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S169" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T169" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U169" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V169" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W169" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X169" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y169" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z169" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA169" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>45238.86385627315</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D170" s="3">
+        <v>2.022275E7</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O170" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P170" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q170" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R170" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S170" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T170" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U170" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V170" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W170" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X170" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y170" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z170" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA170" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>45238.868012534724</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D171" s="3">
+        <v>2.0205246E7</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N171" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O171" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P171" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q171" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R171" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S171" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T171" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U171" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V171" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W171" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X171" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y171" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z171" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA171" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>45238.913717187505</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D172" s="3">
+        <v>2.0232563E7</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O172" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q172" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R172" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S172" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T172" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U172" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V172" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W172" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X172" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y172" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z172" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA172" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>45238.94008407407</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D173" s="3">
+        <v>2.0232939E7</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N173" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O173" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P173" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q173" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R173" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S173" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T173" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U173" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V173" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W173" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X173" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y173" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z173" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA173" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>45238.9612672338</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2.0233955E7</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M174" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N174" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O174" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P174" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q174" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R174" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S174" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T174" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U174" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V174" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W174" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X174" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y174" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z174" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA174" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>45238.97130981481</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D175" s="3">
+        <v>2.0232338E7</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N175" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O175" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P175" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q175" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R175" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S175" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T175" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U175" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V175" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W175" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X175" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y175" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z175" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA175" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>45239.0085244213</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D176" s="3">
+        <v>2.023676E7</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N176" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O176" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P176" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q176" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R176" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S176" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T176" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U176" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V176" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W176" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X176" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y176" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z176" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA176" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>45239.02670618056</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D177" s="3">
+        <v>2.0233711E7</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N177" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O177" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P177" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q177" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R177" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S177" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T177" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U177" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V177" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W177" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X177" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y177" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z177" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA177" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>45239.05754422453</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D178" s="3">
+        <v>2.0232565E7</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N178" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O178" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P178" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q178" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R178" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S178" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T178" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U178" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V178" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W178" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X178" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y178" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z178" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA178" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>45239.0653712037</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D179" s="3">
+        <v>2.0232426E7</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L179" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N179" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O179" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P179" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q179" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R179" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S179" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T179" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U179" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V179" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W179" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X179" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y179" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z179" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA179" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>45239.12370384259</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D180" s="3">
+        <v>2.020234E7</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N180" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O180" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P180" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q180" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R180" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S180" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T180" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U180" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V180" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W180" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X180" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y180" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z180" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA180" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>45239.14273508102</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D181" s="3">
+        <v>2.0202816E7</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N181" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O181" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P181" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q181" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R181" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S181" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T181" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U181" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V181" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W181" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X181" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y181" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z181" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA181" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>45239.399202569446</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D182" s="3">
+        <v>2.0173057E7</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M182" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N182" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O182" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P182" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q182" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R182" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S182" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T182" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U182" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V182" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W182" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X182" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y182" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z182" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA182" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>45239.417434710645</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D183" s="3">
+        <v>2.0172428E7</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M183" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N183" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O183" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P183" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q183" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R183" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S183" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T183" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U183" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V183" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W183" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X183" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y183" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z183" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA183" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>45239.453445046296</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D184" s="3">
+        <v>2.0236604E7</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M184" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N184" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O184" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P184" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q184" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R184" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S184" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T184" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U184" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V184" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W184" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X184" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y184" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z184" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA184" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>45239.46027350695</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D185" s="3">
+        <v>2.0202851E7</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N185" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O185" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P185" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q185" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R185" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S185" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T185" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U185" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V185" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W185" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X185" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y185" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z185" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA185" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>45239.47080969907</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D186" s="3">
+        <v>2.0235201E7</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M186" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O186" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P186" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q186" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R186" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S186" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T186" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U186" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V186" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W186" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X186" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y186" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z186" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA186" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>45239.554777557874</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D187" s="3">
+        <v>2.0233728E7</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M187" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N187" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O187" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P187" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q187" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R187" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S187" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T187" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U187" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V187" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W187" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X187" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y187" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z187" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA187" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>45239.5702265625</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D188" s="3">
+        <v>2.023341E7</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N188" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O188" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P188" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q188" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R188" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S188" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T188" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U188" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V188" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W188" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X188" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y188" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z188" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA188" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>45239.574354745375</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D189" s="3">
+        <v>2.0207091E7</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N189" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O189" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P189" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q189" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R189" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S189" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T189" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U189" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V189" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W189" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X189" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y189" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z189" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA189" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>45239.57791394676</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D190" s="3">
+        <v>2.0173728E7</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M190" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N190" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O190" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P190" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q190" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R190" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S190" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T190" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U190" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V190" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W190" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X190" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y190" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z190" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA190" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>45239.65465320602</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D191" s="3">
+        <v>2.0233726E7</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M191" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N191" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O191" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P191" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q191" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R191" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S191" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T191" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U191" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V191" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W191" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X191" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y191" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z191" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA191" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>45239.655806215276</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D192" s="3">
+        <v>2.0233409E7</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N192" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O192" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P192" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q192" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R192" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S192" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T192" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U192" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V192" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W192" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X192" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y192" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z192" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA192" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>45239.6943659838</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D193" s="3">
+        <v>2.0236742E7</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M193" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N193" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O193" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P193" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q193" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R193" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S193" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T193" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U193" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V193" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W193" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X193" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y193" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z193" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA193" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>45239.69477559028</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D194" s="3">
+        <v>2.0232334E7</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M194" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N194" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O194" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P194" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q194" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R194" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S194" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T194" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U194" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V194" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W194" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X194" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y194" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z194" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA194" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>45239.743666574075</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D195" s="3">
+        <v>2.0215154E7</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M195" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N195" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O195" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P195" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q195" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R195" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S195" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T195" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U195" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V195" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W195" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X195" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y195" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z195" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA195" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>45239.76158334491</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D196" s="3">
+        <v>2.0183831E7</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L196" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M196" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N196" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O196" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P196" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q196" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R196" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S196" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T196" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U196" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V196" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W196" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X196" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y196" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z196" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA196" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>45239.81788181713</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D197" s="3">
+        <v>2.0232339E7</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M197" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N197" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O197" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P197" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q197" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R197" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S197" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T197" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="U197" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V197" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W197" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X197" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y197" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z197" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA197" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>45239.83160039352</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D198" s="3">
+        <v>2.0235219E7</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M198" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N198" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O198" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P198" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q198" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R198" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S198" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T198" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U198" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V198" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W198" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X198" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y198" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z198" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA198" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>45239.85078037037</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D199" s="3">
+        <v>2.0235111E7</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M199" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N199" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O199" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P199" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q199" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R199" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S199" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T199" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U199" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V199" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W199" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X199" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y199" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z199" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA199" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>45239.87295068287</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D200" s="3">
+        <v>2.0192827E7</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M200" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N200" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O200" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P200" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q200" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R200" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S200" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T200" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U200" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V200" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W200" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X200" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y200" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z200" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA200" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>45239.87405731481</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D201" s="3">
+        <v>2.0222367E7</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M201" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N201" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O201" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P201" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q201" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R201" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S201" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T201" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U201" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V201" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W201" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X201" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y201" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z201" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA201" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>45239.91324930555</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D202" s="3">
+        <v>2.0222977E7</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M202" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N202" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O202" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P202" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q202" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R202" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S202" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T202" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U202" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V202" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W202" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X202" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y202" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z202" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA202" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>45239.92782423611</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D203" s="3">
+        <v>2.0234121E7</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L203" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M203" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N203" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O203" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P203" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q203" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R203" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S203" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T203" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U203" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V203" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W203" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X203" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y203" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z203" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA203" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>45239.963081967595</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D204" s="3">
+        <v>2.023629E7</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M204" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N204" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O204" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P204" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q204" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R204" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S204" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T204" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U204" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V204" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W204" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X204" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y204" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z204" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA204" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>45239.97048375</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D205" s="3">
+        <v>2.0202513E7</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M205" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N205" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O205" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P205" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q205" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R205" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S205" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T205" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U205" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V205" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W205" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X205" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y205" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z205" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA205" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>45240.003122361115</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D206" s="3">
+        <v>2.0231209E7</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M206" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N206" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O206" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P206" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q206" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R206" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S206" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T206" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U206" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V206" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W206" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X206" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y206" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z206" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA206" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>45240.01642496527</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D207" s="3">
+        <v>2.0201601E7</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N207" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O207" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P207" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q207" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R207" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="S207" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T207" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U207" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V207" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W207" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X207" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y207" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z207" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA207" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>45240.01904612269</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D208" s="3">
+        <v>2.0235102E7</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M208" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N208" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O208" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P208" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q208" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R208" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="S208" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T208" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U208" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V208" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W208" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X208" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y208" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z208" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA208" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45240.0218225</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D209" s="3">
+        <v>2.0232204E7</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N209" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O209" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P209" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q209" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R209" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="S209" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="T209" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="U209" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V209" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W209" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X209" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y209" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z209" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA209" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45240.04745890046</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D210" s="3">
+        <v>2.0202735E7</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N210" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O210" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P210" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q210" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R210" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S210" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T210" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U210" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V210" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W210" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X210" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y210" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z210" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA210" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>45240.053214942134</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" s="3">
+        <v>2.0233906E7</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M211" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N211" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O211" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P211" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q211" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R211" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S211" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T211" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U211" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V211" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W211" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X211" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y211" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z211" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA211" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>45240.09701631944</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" s="3">
+        <v>2.0232609E7</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M212" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N212" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O212" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P212" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q212" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R212" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S212" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T212" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U212" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V212" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W212" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X212" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y212" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z212" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA212" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>45240.12040130787</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D213" s="3">
+        <v>2.0181735E7</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M213" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N213" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O213" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P213" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q213" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R213" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S213" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T213" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U213" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V213" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W213" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X213" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y213" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z213" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA213" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>45240.15342520834</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D214" s="3">
+        <v>2.0223722E7</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N214" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O214" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P214" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q214" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R214" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S214" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T214" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U214" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V214" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W214" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X214" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y214" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z214" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA214" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/BFI231106_tmp.xlsx
+++ b/R/data/BFI231106_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5026" uniqueCount="596">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1556,6 +1556,249 @@
   </si>
   <si>
     <t>안정하</t>
+  </si>
+  <si>
+    <t>0319dy@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>dlguswls0676@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 철학전공</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>kkhe2370@naver.com</t>
+  </si>
+  <si>
+    <t>전혜린</t>
+  </si>
+  <si>
+    <t>rhksan324@naver.com</t>
+  </si>
+  <si>
+    <t>이관무</t>
+  </si>
+  <si>
+    <t>sshs0206@nave.com</t>
+  </si>
+  <si>
+    <t>최지민</t>
+  </si>
+  <si>
+    <t>junhvn1@gmail.com</t>
+  </si>
+  <si>
+    <t>박준한</t>
+  </si>
+  <si>
+    <t>inhwagil40@gmail.com</t>
+  </si>
+  <si>
+    <t>길인화</t>
+  </si>
+  <si>
+    <t>djdodhrghr@naver.com</t>
+  </si>
+  <si>
+    <t>융합신소재공학전공</t>
+  </si>
+  <si>
+    <t>송서현</t>
+  </si>
+  <si>
+    <t>lhj040512@naver.com</t>
+  </si>
+  <si>
+    <t>이현종</t>
+  </si>
+  <si>
+    <t>ntkrud0221@naver.com</t>
+  </si>
+  <si>
+    <t>노태경</t>
+  </si>
+  <si>
+    <t>jjsuk9702@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>김선혁</t>
+  </si>
+  <si>
+    <t>ajw20040114@gmail.com</t>
+  </si>
+  <si>
+    <t>안정우</t>
+  </si>
+  <si>
+    <t>popoq2004@naver.com</t>
+  </si>
+  <si>
+    <t>박신비</t>
+  </si>
+  <si>
+    <t>wotmddl3947@gmail.com</t>
+  </si>
+  <si>
+    <t>류재승</t>
+  </si>
+  <si>
+    <t>gksgh2311@naver.com</t>
+  </si>
+  <si>
+    <t>전한호</t>
+  </si>
+  <si>
+    <t>harin3040@naver.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>dbwlgns1307@naver.com</t>
+  </si>
+  <si>
+    <t>유지훈</t>
+  </si>
+  <si>
+    <t>kirokomom@naver.com</t>
+  </si>
+  <si>
+    <t>김병관</t>
+  </si>
+  <si>
+    <t>5614bok@naver.com</t>
+  </si>
+  <si>
+    <t>안세진</t>
+  </si>
+  <si>
+    <t>20225169@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>배승</t>
+  </si>
+  <si>
+    <t>ekgus0916@naver.com</t>
+  </si>
+  <si>
+    <t>김다현</t>
+  </si>
+  <si>
+    <t>h20206619@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>신현경</t>
+  </si>
+  <si>
+    <t>chh040817@naver.com</t>
+  </si>
+  <si>
+    <t>차현화</t>
+  </si>
+  <si>
+    <t>syn_1234@naver.com</t>
+  </si>
+  <si>
+    <t>사영노</t>
+  </si>
+  <si>
+    <t>ggwoo02211@gmail.com</t>
+  </si>
+  <si>
+    <t>박건우</t>
+  </si>
+  <si>
+    <t>yura5635@naver.com</t>
+  </si>
+  <si>
+    <t>이유라</t>
+  </si>
+  <si>
+    <t>kq872@naver.com</t>
+  </si>
+  <si>
+    <t>이원상</t>
+  </si>
+  <si>
+    <t>ga89193234@gmail.com</t>
+  </si>
+  <si>
+    <t>김경아</t>
+  </si>
+  <si>
+    <t>phg1242@naver.com</t>
+  </si>
+  <si>
+    <t>박효근</t>
+  </si>
+  <si>
+    <t>nanadiana222@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터과</t>
+  </si>
+  <si>
+    <t>조희진</t>
+  </si>
+  <si>
+    <t>ksrkatie@naver.com</t>
+  </si>
+  <si>
+    <t>권소린</t>
+  </si>
+  <si>
+    <t>leaf0113@naver.com</t>
+  </si>
+  <si>
+    <t>김남은</t>
+  </si>
+  <si>
+    <t>fkdldjs0322@naver.com</t>
+  </si>
+  <si>
+    <t>이지희</t>
+  </si>
+  <si>
+    <t>xornjsskdwk0902@gmail.com</t>
+  </si>
+  <si>
+    <t>인문학부 사학전공</t>
+  </si>
+  <si>
+    <t>김태민</t>
+  </si>
+  <si>
+    <t>ggjtt4051@gmail.com</t>
+  </si>
+  <si>
+    <t>최아린</t>
+  </si>
+  <si>
+    <t>minhan3729@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>이민한</t>
+  </si>
+  <si>
+    <t>lovechan2004@naver.com</t>
+  </si>
+  <si>
+    <t>황예찬</t>
   </si>
 </sst>
 </file>
@@ -19587,6 +19830,3077 @@
         <v>36</v>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>45240.37651052083</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D215" s="3">
+        <v>2.0225116E7</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M215" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N215" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O215" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P215" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q215" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R215" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S215" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T215" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U215" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V215" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W215" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X215" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y215" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z215" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA215" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>45240.4284608912</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D216" s="3">
+        <v>2.0171078E7</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M216" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N216" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O216" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P216" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q216" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R216" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S216" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T216" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U216" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V216" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W216" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X216" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y216" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z216" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA216" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>45240.454529016206</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D217" s="3">
+        <v>2.0202638E7</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M217" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N217" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O217" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P217" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q217" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R217" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S217" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T217" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U217" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V217" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W217" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X217" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y217" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z217" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA217" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>45240.48242166667</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D218" s="3">
+        <v>2.0203001E7</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M218" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N218" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O218" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P218" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q218" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R218" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S218" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="T218" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U218" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V218" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W218" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X218" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y218" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z218" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA218" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>45240.54067555556</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D219" s="3">
+        <v>2.0236174E7</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M219" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N219" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O219" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P219" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q219" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R219" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S219" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T219" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U219" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V219" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W219" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X219" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y219" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z219" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA219" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>45240.56050856481</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D220" s="3">
+        <v>2.0192614E7</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M220" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N220" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O220" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P220" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q220" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R220" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S220" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T220" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U220" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V220" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W220" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X220" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y220" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z220" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA220" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>45240.560852800925</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D221" s="3">
+        <v>2.023621E7</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M221" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N221" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O221" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P221" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q221" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R221" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S221" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T221" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U221" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V221" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W221" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X221" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y221" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z221" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA221" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>45240.56398378473</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D222" s="3">
+        <v>2.0216628E7</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M222" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N222" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O222" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P222" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q222" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R222" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S222" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T222" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U222" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V222" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W222" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X222" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y222" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z222" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA222" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>45240.568973368056</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D223" s="3">
+        <v>2.0233424E7</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M223" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N223" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O223" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P223" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q223" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R223" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S223" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T223" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U223" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V223" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W223" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X223" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y223" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z223" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA223" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>45240.5704191088</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D224" s="3">
+        <v>2.0234118E7</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N224" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O224" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P224" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q224" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R224" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S224" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="T224" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U224" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V224" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W224" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X224" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y224" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z224" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA224" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>45240.605803576385</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D225" s="3">
+        <v>2.0217141E7</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M225" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N225" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O225" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P225" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q225" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R225" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S225" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T225" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U225" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V225" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W225" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X225" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y225" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z225" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA225" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>45240.61166899306</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D226" s="3">
+        <v>2.0235202E7</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N226" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O226" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P226" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q226" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R226" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S226" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="T226" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U226" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V226" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W226" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X226" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y226" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z226" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA226" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>45240.63553288195</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D227" s="3">
+        <v>2.0236239E7</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N227" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O227" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P227" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q227" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R227" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S227" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T227" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U227" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V227" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W227" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X227" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y227" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z227" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA227" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>45240.69128571759</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D228" s="3">
+        <v>2.0195157E7</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N228" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O228" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P228" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q228" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R228" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S228" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T228" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U228" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V228" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W228" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X228" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y228" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z228" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA228" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>45240.7049008912</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D229" s="3">
+        <v>2.0232842E7</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N229" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O229" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P229" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q229" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R229" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S229" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T229" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U229" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V229" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W229" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X229" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y229" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z229" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA229" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>45240.71725207176</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D230" s="3">
+        <v>2.0232113E7</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M230" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N230" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O230" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P230" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q230" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R230" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S230" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T230" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U230" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V230" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W230" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X230" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y230" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z230" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA230" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>45240.71832542824</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D231" s="3">
+        <v>2.0194132E7</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L231" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M231" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N231" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O231" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P231" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q231" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R231" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S231" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T231" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U231" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V231" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W231" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X231" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y231" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z231" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA231" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>45240.74851351852</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D232" s="3">
+        <v>2.0192709E7</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M232" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N232" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O232" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P232" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q232" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R232" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S232" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T232" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U232" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V232" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W232" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X232" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y232" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z232" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA232" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>45240.75704320602</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D233" s="3">
+        <v>2.0233525E7</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M233" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N233" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O233" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P233" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q233" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R233" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S233" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T233" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U233" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V233" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W233" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X233" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y233" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z233" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA233" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>45240.85721927084</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D234" s="3">
+        <v>2.0225169E7</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K234" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L234" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M234" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N234" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O234" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P234" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q234" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R234" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S234" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T234" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U234" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V234" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X234" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y234" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA234" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>45240.86280909722</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D235" s="3">
+        <v>2.0217125E7</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K235" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L235" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M235" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N235" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O235" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P235" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q235" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R235" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S235" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T235" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U235" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V235" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W235" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X235" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y235" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z235" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA235" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>45240.864308171294</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D236" s="3">
+        <v>2.0206619E7</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K236" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L236" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M236" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N236" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O236" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P236" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q236" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R236" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S236" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T236" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U236" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V236" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W236" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X236" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y236" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z236" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA236" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>45240.87754984954</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" s="3">
+        <v>2.0233962E7</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M237" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N237" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O237" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P237" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q237" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R237" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S237" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T237" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U237" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V237" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W237" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X237" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y237" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z237" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA237" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>45240.88028972222</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2.0205184E7</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M238" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N238" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O238" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P238" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q238" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R238" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S238" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T238" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U238" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V238" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W238" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X238" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y238" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z238" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA238" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>45240.90294342593</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D239" s="3">
+        <v>2.0232817E7</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L239" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M239" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N239" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O239" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P239" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q239" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R239" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S239" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T239" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U239" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V239" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W239" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X239" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y239" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z239" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA239" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>45240.91794961806</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D240" s="3">
+        <v>2.0203637E7</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L240" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M240" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N240" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O240" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P240" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q240" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R240" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S240" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T240" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U240" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V240" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W240" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X240" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y240" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z240" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA240" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>45240.923181875</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D241" s="3">
+        <v>2.0193531E7</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M241" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N241" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O241" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P241" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q241" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R241" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S241" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T241" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U241" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V241" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W241" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X241" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y241" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z241" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA241" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>45240.93128076389</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D242" s="3">
+        <v>2.0231007E7</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M242" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N242" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O242" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P242" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q242" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R242" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S242" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T242" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U242" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V242" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W242" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X242" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y242" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z242" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA242" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>45240.95371400463</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D243" s="3">
+        <v>2.0193926E7</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N243" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O243" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P243" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q243" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R243" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S243" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T243" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U243" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V243" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W243" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X243" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y243" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z243" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA243" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>45240.98209849537</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D244" s="3">
+        <v>2.0225261E7</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M244" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N244" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O244" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P244" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q244" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R244" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S244" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T244" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U244" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V244" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W244" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X244" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y244" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z244" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA244" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>45240.987164375</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D245" s="3">
+        <v>2.0231004E7</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M245" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N245" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O245" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P245" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q245" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R245" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S245" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T245" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U245" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="V245" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="W245" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X245" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y245" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z245" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA245" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>45241.04860918982</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D246" s="3">
+        <v>2.0231203E7</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K246" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L246" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M246" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N246" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O246" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P246" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q246" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R246" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S246" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T246" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U246" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V246" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W246" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X246" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y246" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z246" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA246" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>45241.05924880787</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D247" s="3">
+        <v>2.0231075E7</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K247" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L247" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M247" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N247" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O247" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P247" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q247" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R247" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S247" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T247" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U247" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V247" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W247" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X247" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y247" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z247" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA247" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>45241.07361008102</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D248" s="3">
+        <v>2.0181027E7</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L248" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M248" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N248" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O248" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P248" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q248" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R248" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S248" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T248" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U248" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V248" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W248" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X248" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y248" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z248" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA248" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>45241.0944899537</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D249" s="3">
+        <v>2.0233051E7</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M249" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N249" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O249" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P249" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q249" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R249" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S249" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T249" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U249" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V249" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W249" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X249" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y249" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z249" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA249" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>45241.09873329861</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D250" s="3">
+        <v>2.0182556E7</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M250" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N250" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O250" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P250" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q250" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R250" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="S250" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T250" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U250" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V250" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W250" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X250" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y250" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z250" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA250" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>45241.17887267361</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D251" s="3">
+        <v>2.0236646E7</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M251" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N251" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O251" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P251" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q251" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R251" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S251" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T251" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U251" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V251" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W251" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X251" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y251" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z251" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA251" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/BFI231106_tmp.xlsx
+++ b/R/data/BFI231106_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5026" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5486" uniqueCount="643">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1799,6 +1799,147 @@
   </si>
   <si>
     <t>황예찬</t>
+  </si>
+  <si>
+    <t>hyu4511@gmail.com</t>
+  </si>
+  <si>
+    <t>유영후</t>
+  </si>
+  <si>
+    <t>dldusgh0908@gmail.com</t>
+  </si>
+  <si>
+    <t>이연호</t>
+  </si>
+  <si>
+    <t>cmsgood99@gmail.com</t>
+  </si>
+  <si>
+    <t>곽동희</t>
+  </si>
+  <si>
+    <t>qazx429@naver.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>aj4497@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>안연지</t>
+  </si>
+  <si>
+    <t>jisung5549@naver.com</t>
+  </si>
+  <si>
+    <t>송지성</t>
+  </si>
+  <si>
+    <t>birr040511@naver.com</t>
+  </si>
+  <si>
+    <t>오준서</t>
+  </si>
+  <si>
+    <t>vivace3990@gmail.com</t>
+  </si>
+  <si>
+    <t>김정현</t>
+  </si>
+  <si>
+    <t>tnwls03270327@gmail.com</t>
+  </si>
+  <si>
+    <t>권수진</t>
+  </si>
+  <si>
+    <t>dlawlals1669@naver.com</t>
+  </si>
+  <si>
+    <t>임지민</t>
+  </si>
+  <si>
+    <t>smart0403p@naver.com</t>
+  </si>
+  <si>
+    <t>seohyojeong123@gmail.com</t>
+  </si>
+  <si>
+    <t>서효정</t>
+  </si>
+  <si>
+    <t>heejae7942@naver.com</t>
+  </si>
+  <si>
+    <t>최희재</t>
+  </si>
+  <si>
+    <t>kimkitty040510@gmail.com</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>junchan1223@naver.com</t>
+  </si>
+  <si>
+    <t>최찬현</t>
+  </si>
+  <si>
+    <t>bill916@naver.com</t>
+  </si>
+  <si>
+    <t>의약신소재</t>
+  </si>
+  <si>
+    <t>신대철</t>
+  </si>
+  <si>
+    <t>yoon04817@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤서</t>
+  </si>
+  <si>
+    <t>kgy5988@naver.com</t>
+  </si>
+  <si>
+    <t>김진범</t>
+  </si>
+  <si>
+    <t>kdh01270102@gmail.com</t>
+  </si>
+  <si>
+    <t>rhy0787@naver.com</t>
+  </si>
+  <si>
+    <t>유희영</t>
+  </si>
+  <si>
+    <t>eugene3551@gmail.com</t>
+  </si>
+  <si>
+    <t>유수영</t>
+  </si>
+  <si>
+    <t>tibbit2@naver.com</t>
+  </si>
+  <si>
+    <t>AI의료융합전공</t>
+  </si>
+  <si>
+    <t>정윤재</t>
+  </si>
+  <si>
+    <t>yewonshine@naver.com</t>
+  </si>
+  <si>
+    <t>허예원</t>
   </si>
 </sst>
 </file>
@@ -22901,6 +23042,1915 @@
         <v>37</v>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>45241.48741184028</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D252" s="3">
+        <v>2.023106E7</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L252" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M252" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N252" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O252" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P252" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q252" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R252" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S252" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T252" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U252" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V252" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W252" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X252" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y252" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z252" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA252" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>45241.49128553241</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D253" s="3">
+        <v>2.0232738E7</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L253" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M253" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N253" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O253" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P253" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q253" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R253" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S253" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T253" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U253" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V253" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W253" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X253" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y253" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z253" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA253" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>45241.506998067125</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" s="3">
+        <v>2.0233905E7</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L254" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M254" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N254" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O254" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P254" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q254" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R254" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S254" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T254" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U254" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V254" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W254" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X254" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y254" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA254" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>45241.51433439815</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D255" s="3">
+        <v>2.0232706E7</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K255" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L255" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M255" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N255" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O255" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P255" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q255" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R255" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S255" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T255" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U255" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V255" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X255" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y255" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA255" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>45241.53624746528</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D256" s="3">
+        <v>2.0233326E7</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L256" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M256" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N256" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O256" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P256" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q256" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R256" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S256" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T256" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U256" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V256" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W256" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X256" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y256" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z256" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA256" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>45241.54377815972</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D257" s="3">
+        <v>2.022297E7</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L257" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M257" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N257" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R257" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S257" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T257" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U257" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="V257" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W257" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X257" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y257" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z257" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA257" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>45241.56457740741</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D258" s="3">
+        <v>2.0232832E7</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M258" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N258" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O258" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P258" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q258" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R258" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S258" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T258" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U258" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V258" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W258" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X258" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y258" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z258" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA258" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>45241.577303240745</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D259" s="3">
+        <v>2.0171605E7</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J259" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L259" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M259" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N259" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O259" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P259" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q259" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R259" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S259" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T259" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U259" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V259" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W259" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X259" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y259" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z259" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA259" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>45241.62206084491</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D260" s="3">
+        <v>2.0192703E7</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L260" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M260" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N260" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O260" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P260" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q260" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R260" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="S260" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T260" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="U260" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V260" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="W260" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X260" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y260" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z260" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA260" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>45241.6304290625</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D261" s="3">
+        <v>2.0231537E7</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L261" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M261" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N261" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O261" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P261" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q261" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R261" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S261" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T261" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U261" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V261" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W261" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X261" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y261" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z261" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA261" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>45241.635726875</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D262" s="3">
+        <v>2.0232719E7</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L262" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M262" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N262" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O262" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P262" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q262" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R262" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S262" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T262" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U262" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V262" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W262" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X262" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y262" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z262" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA262" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>45241.68158292824</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D263" s="3">
+        <v>2.0226622E7</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L263" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M263" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N263" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O263" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P263" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q263" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R263" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S263" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T263" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U263" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V263" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W263" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X263" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y263" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z263" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA263" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>45241.68362333333</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D264" s="3">
+        <v>2.0236301E7</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L264" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M264" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N264" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O264" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P264" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q264" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R264" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S264" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T264" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U264" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V264" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W264" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X264" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y264" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z264" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA264" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>45241.6906749537</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D265" s="3">
+        <v>2.0232707E7</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L265" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M265" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P265" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R265" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S265" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T265" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="U265" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V265" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W265" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X265" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y265" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z265" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA265" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>45241.70311564815</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D266" s="3">
+        <v>2.02363E7</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L266" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M266" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N266" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O266" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P266" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q266" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R266" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S266" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T266" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U266" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V266" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W266" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X266" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y266" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z266" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA266" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>45241.70646233796</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D267" s="3">
+        <v>2.0196621E7</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J267" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L267" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M267" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N267" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O267" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P267" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q267" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R267" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S267" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T267" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U267" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V267" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W267" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X267" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y267" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z267" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA267" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>45241.74080082176</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D268" s="3">
+        <v>2.023677E7</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K268" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L268" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M268" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N268" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O268" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P268" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q268" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R268" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S268" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T268" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U268" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V268" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W268" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X268" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y268" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z268" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA268" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>45241.74122130787</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D269" s="3">
+        <v>2.0203214E7</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L269" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M269" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N269" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O269" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P269" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q269" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R269" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S269" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T269" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U269" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V269" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W269" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X269" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y269" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z269" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA269" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>45241.743793333335</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D270" s="3">
+        <v>2.0212707E7</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J270" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L270" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M270" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N270" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O270" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P270" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q270" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R270" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S270" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T270" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U270" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V270" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W270" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X270" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y270" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z270" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA270" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2">
+        <v>45241.74389478009</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D271" s="3">
+        <v>2.0213827E7</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K271" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L271" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O271" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P271" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q271" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R271" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S271" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T271" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U271" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V271" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W271" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X271" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y271" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z271" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA271" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2">
+        <v>45241.74502040509</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D272" s="3">
+        <v>2.0235214E7</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J272" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K272" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L272" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M272" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N272" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O272" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P272" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q272" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R272" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S272" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T272" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U272" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V272" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X272" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y272" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z272" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA272" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2">
+        <v>45241.74722907407</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D273" s="3">
+        <v>2.021675E7</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L273" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M273" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N273" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O273" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P273" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q273" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R273" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S273" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T273" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U273" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V273" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W273" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X273" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y273" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z273" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA273" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2">
+        <v>45241.74926216435</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D274" s="3">
+        <v>2.0217122E7</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L274" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M274" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N274" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O274" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P274" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q274" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R274" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S274" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T274" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U274" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V274" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W274" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X274" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y274" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z274" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA274" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/BFI231106_tmp.xlsx
+++ b/R/data/BFI231106_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5486" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6106" uniqueCount="707">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1940,6 +1940,198 @@
   </si>
   <si>
     <t>허예원</t>
+  </si>
+  <si>
+    <t>20235130@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김상윤</t>
+  </si>
+  <si>
+    <t>hhuning8814@gmail.com</t>
+  </si>
+  <si>
+    <t>임지우</t>
+  </si>
+  <si>
+    <t>20226760@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>Ai의료융합</t>
+  </si>
+  <si>
+    <t>이민홍</t>
+  </si>
+  <si>
+    <t>mu3218712@naver.com</t>
+  </si>
+  <si>
+    <t>이무원</t>
+  </si>
+  <si>
+    <t>bluessin0312@naver.com</t>
+  </si>
+  <si>
+    <t>신혜빈</t>
+  </si>
+  <si>
+    <t>kimys20604@gmail.com</t>
+  </si>
+  <si>
+    <t>김용석</t>
+  </si>
+  <si>
+    <t>minho020122@gmail.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>kimdo4524@naver.com</t>
+  </si>
+  <si>
+    <t>leesave9@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학전공</t>
+  </si>
+  <si>
+    <t>이혁재</t>
+  </si>
+  <si>
+    <t>ee2243@naver.com</t>
+  </si>
+  <si>
+    <t>정주연</t>
+  </si>
+  <si>
+    <t>dltndus004@naver.com</t>
+  </si>
+  <si>
+    <t>alsgk03@naver.com</t>
+  </si>
+  <si>
+    <t>사회</t>
+  </si>
+  <si>
+    <t>박민하</t>
+  </si>
+  <si>
+    <t>hamy7@naver.com</t>
+  </si>
+  <si>
+    <t>이욱항</t>
+  </si>
+  <si>
+    <t>wldodxp@naver.com</t>
+  </si>
+  <si>
+    <t>박지영</t>
+  </si>
+  <si>
+    <t>audri01@naver.com</t>
+  </si>
+  <si>
+    <t>이승아</t>
+  </si>
+  <si>
+    <t>justin0304299@naver.com</t>
+  </si>
+  <si>
+    <t>박기현</t>
+  </si>
+  <si>
+    <t>choe0119@gmail.com</t>
+  </si>
+  <si>
+    <t>최태웅</t>
+  </si>
+  <si>
+    <t>biseos4@gmail.com</t>
+  </si>
+  <si>
+    <t>박주영</t>
+  </si>
+  <si>
+    <t>ke64276065@gmail.com</t>
+  </si>
+  <si>
+    <t>김가은</t>
+  </si>
+  <si>
+    <t>2003lsa@naver.com</t>
+  </si>
+  <si>
+    <t>이수아</t>
+  </si>
+  <si>
+    <t>sinjisu030426@gmail.com</t>
+  </si>
+  <si>
+    <t>신지수</t>
+  </si>
+  <si>
+    <t>wooyj0817@naver.com</t>
+  </si>
+  <si>
+    <t>우연정</t>
+  </si>
+  <si>
+    <t>yukima0110@naver.com</t>
+  </si>
+  <si>
+    <t>유설진</t>
+  </si>
+  <si>
+    <t>0310cherry@naver.com</t>
+  </si>
+  <si>
+    <t>이재원</t>
+  </si>
+  <si>
+    <t>donghyun4147@naver.com</t>
+  </si>
+  <si>
+    <t>srhst1130@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>윤하은</t>
+  </si>
+  <si>
+    <t>bin85288@daum.net</t>
+  </si>
+  <si>
+    <t>김수빈</t>
+  </si>
+  <si>
+    <t>choihyobin0128@naver.com</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>최효빈</t>
+  </si>
+  <si>
+    <t>hanhj0223@gmail.com</t>
+  </si>
+  <si>
+    <t>한형준</t>
+  </si>
+  <si>
+    <t>20233824@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>안지영</t>
+  </si>
+  <si>
+    <t>leejuns0711@naver.com</t>
+  </si>
+  <si>
+    <t>이준서</t>
   </si>
 </sst>
 </file>
@@ -24951,6 +25143,2579 @@
         <v>35</v>
       </c>
     </row>
+    <row r="275">
+      <c r="A275" s="2">
+        <v>45241.75767643518</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D275" s="3">
+        <v>2.023513E7</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L275" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M275" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N275" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O275" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P275" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q275" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R275" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S275" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T275" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U275" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V275" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W275" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X275" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y275" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z275" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA275" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2">
+        <v>45241.75838613426</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D276" s="3">
+        <v>2.0236635E7</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L276" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M276" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N276" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O276" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P276" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q276" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R276" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S276" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T276" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U276" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V276" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W276" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X276" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y276" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z276" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA276" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2">
+        <v>45241.80890746528</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D277" s="3">
+        <v>2.022676E7</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R277" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S277" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T277" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U277" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V277" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W277" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X277" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y277" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z277" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA277" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2">
+        <v>45241.83382792824</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D278" s="3">
+        <v>2.0211061E7</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L278" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M278" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N278" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O278" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P278" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q278" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R278" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S278" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T278" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U278" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V278" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W278" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X278" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y278" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z278" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA278" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2">
+        <v>45241.85014572917</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D279" s="3">
+        <v>2.0221054E7</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J279" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K279" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L279" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M279" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N279" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O279" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P279" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q279" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R279" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="S279" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T279" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U279" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V279" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W279" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X279" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y279" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z279" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA279" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2">
+        <v>45241.85116741898</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D280" s="3">
+        <v>2.0236714E7</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L280" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M280" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N280" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O280" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P280" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q280" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R280" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S280" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T280" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U280" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V280" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W280" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X280" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y280" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z280" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA280" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2">
+        <v>45241.86823269676</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D281" s="3">
+        <v>2.0212709E7</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J281" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K281" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L281" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M281" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N281" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O281" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P281" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q281" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R281" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S281" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T281" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U281" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V281" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W281" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X281" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y281" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z281" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA281" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2">
+        <v>45241.878406261574</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D282" s="3">
+        <v>2.0232407E7</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J282" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K282" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L282" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M282" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N282" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O282" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P282" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q282" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R282" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S282" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T282" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U282" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V282" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W282" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X282" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y282" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z282" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA282" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2">
+        <v>45241.88015627315</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D283" s="3">
+        <v>2.0181088E7</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K283" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L283" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M283" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N283" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O283" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P283" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q283" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R283" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S283" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T283" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U283" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V283" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W283" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X283" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y283" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z283" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA283" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2">
+        <v>45241.88039416667</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D284" s="3">
+        <v>2.0232362E7</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K284" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L284" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M284" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N284" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O284" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P284" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q284" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R284" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S284" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T284" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U284" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="V284" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W284" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X284" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y284" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z284" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA284" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2">
+        <v>45241.88204885417</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D285" s="3">
+        <v>2.0232627E7</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J285" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L285" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M285" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N285" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O285" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P285" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q285" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R285" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S285" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T285" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U285" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V285" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W285" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X285" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y285" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z285" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA285" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2">
+        <v>45241.90837662037</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D286" s="3">
+        <v>2.0222213E7</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K286" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L286" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M286" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N286" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O286" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P286" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q286" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R286" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S286" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T286" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U286" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V286" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W286" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X286" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y286" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z286" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA286" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2">
+        <v>45241.91419253472</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D287" s="3">
+        <v>2.0233834E7</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J287" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K287" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L287" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M287" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N287" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O287" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P287" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q287" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R287" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S287" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T287" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U287" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V287" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W287" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X287" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y287" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z287" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA287" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2">
+        <v>45241.91837855324</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D288" s="3">
+        <v>2.0212727E7</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M288" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N288" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O288" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P288" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q288" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R288" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="S288" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T288" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="U288" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V288" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W288" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X288" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y288" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z288" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA288" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2">
+        <v>45241.922632870366</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D289" s="3">
+        <v>2.0203639E7</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K289" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L289" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M289" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N289" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O289" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P289" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q289" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R289" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S289" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T289" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U289" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V289" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W289" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X289" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y289" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z289" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA289" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2">
+        <v>45241.97196743055</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D290" s="3">
+        <v>2.0213515E7</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K290" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M290" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N290" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O290" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P290" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q290" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R290" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S290" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T290" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U290" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V290" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W290" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X290" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y290" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z290" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA290" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2">
+        <v>45241.97970077547</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D291" s="3">
+        <v>2.0226176E7</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J291" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K291" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L291" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M291" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N291" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O291" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P291" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q291" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R291" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S291" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T291" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U291" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V291" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W291" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X291" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y291" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z291" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA291" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>45241.980301759264</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D292" s="3">
+        <v>2.0235171E7</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J292" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K292" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L292" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M292" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N292" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O292" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P292" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q292" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R292" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S292" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T292" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U292" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V292" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W292" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X292" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y292" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z292" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA292" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>45241.98607119213</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D293" s="3">
+        <v>2.0223705E7</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J293" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K293" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L293" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M293" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N293" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O293" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P293" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q293" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R293" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S293" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T293" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U293" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V293" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W293" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X293" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y293" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z293" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA293" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>45241.994617268516</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D294" s="3">
+        <v>2.0223E7</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J294" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K294" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L294" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M294" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N294" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O294" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P294" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q294" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R294" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S294" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T294" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U294" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V294" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W294" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X294" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y294" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z294" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA294" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>45242.007310381945</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D295" s="3">
+        <v>2.0222728E7</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L295" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P295" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R295" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="S295" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T295" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="U295" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V295" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W295" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X295" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y295" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z295" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA295" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>45242.025275486114</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D296" s="3">
+        <v>2.0212986E7</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J296" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K296" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L296" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M296" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N296" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O296" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P296" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q296" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R296" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S296" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T296" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U296" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V296" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W296" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X296" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y296" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z296" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA296" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>45242.03550353009</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D297" s="3">
+        <v>2.019212E7</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J297" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K297" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L297" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M297" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N297" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O297" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P297" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q297" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R297" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S297" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T297" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U297" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V297" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W297" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X297" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y297" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z297" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA297" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>45242.05667449074</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D298" s="3">
+        <v>2.019153E7</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J298" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K298" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L298" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M298" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N298" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O298" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P298" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q298" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R298" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S298" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T298" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U298" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V298" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W298" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X298" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y298" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z298" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA298" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2">
+        <v>45242.059162453705</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D299" s="3">
+        <v>2.0193401E7</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J299" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K299" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L299" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M299" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N299" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O299" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P299" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q299" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R299" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S299" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T299" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U299" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V299" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W299" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X299" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y299" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z299" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA299" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2">
+        <v>45242.07277306713</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D300" s="3">
+        <v>2.0191066E7</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J300" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K300" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L300" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M300" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N300" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O300" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P300" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q300" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R300" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S300" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T300" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U300" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V300" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W300" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X300" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y300" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z300" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA300" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2">
+        <v>45242.09705082176</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D301" s="3">
+        <v>2.0231016E7</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J301" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K301" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L301" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M301" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N301" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O301" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P301" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q301" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R301" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S301" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T301" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U301" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V301" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W301" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X301" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y301" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z301" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA301" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2">
+        <v>45242.11601290509</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D302" s="3">
+        <v>2.0233058E7</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J302" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K302" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L302" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M302" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N302" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O302" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P302" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q302" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R302" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S302" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T302" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U302" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V302" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W302" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X302" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y302" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z302" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA302" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>45242.12262061343</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D303" s="3">
+        <v>2.0233966E7</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J303" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K303" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L303" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M303" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N303" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O303" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P303" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q303" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R303" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S303" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T303" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U303" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V303" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W303" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X303" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y303" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z303" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA303" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>45242.18149077546</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D304" s="3">
+        <v>2.0233824E7</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J304" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K304" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L304" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M304" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N304" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O304" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P304" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q304" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R304" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S304" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T304" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U304" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V304" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W304" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X304" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y304" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z304" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA304" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>45242.230869374995</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D305" s="3">
+        <v>2.0202741E7</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J305" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K305" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L305" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M305" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N305" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O305" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P305" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q305" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R305" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S305" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T305" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U305" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V305" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W305" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X305" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y305" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z305" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA305" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/BFI231106_tmp.xlsx
+++ b/R/data/BFI231106_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6106" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8066" uniqueCount="914">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2132,6 +2132,627 @@
   </si>
   <si>
     <t>이준서</t>
+  </si>
+  <si>
+    <t>wjddmsqjqtk@naver.com</t>
+  </si>
+  <si>
+    <t>신정은</t>
+  </si>
+  <si>
+    <t>tlsrkdms12345@naver.com</t>
+  </si>
+  <si>
+    <t>신가은</t>
+  </si>
+  <si>
+    <t>duddndywjd@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">송영우 </t>
+  </si>
+  <si>
+    <t>jsubin0424@gmail.com</t>
+  </si>
+  <si>
+    <t>정수빈</t>
+  </si>
+  <si>
+    <t>jinwon4725@naver.com</t>
+  </si>
+  <si>
+    <t>장진원</t>
+  </si>
+  <si>
+    <t>ehgus4597@gmail.com</t>
+  </si>
+  <si>
+    <t>김도현</t>
+  </si>
+  <si>
+    <t>030223cho@naver.com</t>
+  </si>
+  <si>
+    <t>조성진</t>
+  </si>
+  <si>
+    <t>mingye990410@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>roy041108@gmail.com</t>
+  </si>
+  <si>
+    <t>신영훈</t>
+  </si>
+  <si>
+    <t>jjiwoong0212@gmail.com</t>
+  </si>
+  <si>
+    <t>이지웅</t>
+  </si>
+  <si>
+    <t>wjdgus2251@naver.com</t>
+  </si>
+  <si>
+    <t>이정현</t>
+  </si>
+  <si>
+    <t>t26a1@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반도체 디스플레이 </t>
+  </si>
+  <si>
+    <t>신동한</t>
+  </si>
+  <si>
+    <t>drmiso526@naver.com</t>
+  </si>
+  <si>
+    <t>김세중</t>
+  </si>
+  <si>
+    <t>seoj07070@gmail.com</t>
+  </si>
+  <si>
+    <t>DONGZECHAO</t>
+  </si>
+  <si>
+    <t>hayeong206@gmail.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>dmskr0408@gmail.com</t>
+  </si>
+  <si>
+    <t>오은탁</t>
+  </si>
+  <si>
+    <t>djcjfakstp@gmail.com</t>
+  </si>
+  <si>
+    <t>융합인재학부</t>
+  </si>
+  <si>
+    <t>어철</t>
+  </si>
+  <si>
+    <t>gmyeongju515@gmail.com</t>
+  </si>
+  <si>
+    <t>김명주</t>
+  </si>
+  <si>
+    <t>pmr0093@naver.com</t>
+  </si>
+  <si>
+    <t>박미래</t>
+  </si>
+  <si>
+    <t>leeyen1215@naver.com</t>
+  </si>
+  <si>
+    <t>이예인</t>
+  </si>
+  <si>
+    <t>ysa8659@gmail.com</t>
+  </si>
+  <si>
+    <t>조성목</t>
+  </si>
+  <si>
+    <t>smilerina1@naver.com</t>
+  </si>
+  <si>
+    <t>조예린</t>
+  </si>
+  <si>
+    <t>kimcylove@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지학전공</t>
+  </si>
+  <si>
+    <t>김채연</t>
+  </si>
+  <si>
+    <t>sysy050300@naver.com</t>
+  </si>
+  <si>
+    <t>고서연</t>
+  </si>
+  <si>
+    <t>yjh110951@gmail.com</t>
+  </si>
+  <si>
+    <t>유정훈</t>
+  </si>
+  <si>
+    <t>20232327@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회복지학부 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">박소희 </t>
+  </si>
+  <si>
+    <t>hanyong0302@gmail.com</t>
+  </si>
+  <si>
+    <t>김한용</t>
+  </si>
+  <si>
+    <t>areana1053@naver.com</t>
+  </si>
+  <si>
+    <t>김나영</t>
+  </si>
+  <si>
+    <t>psp528500@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>hyelinj27@gmail.com</t>
+  </si>
+  <si>
+    <t>진혜린</t>
+  </si>
+  <si>
+    <t>duswn8911@naver.com</t>
+  </si>
+  <si>
+    <t>김연주</t>
+  </si>
+  <si>
+    <t>yerin2545717@gmail.com</t>
+  </si>
+  <si>
+    <t>권예린</t>
+  </si>
+  <si>
+    <t>jyn10131@naver.com</t>
+  </si>
+  <si>
+    <t>정예나</t>
+  </si>
+  <si>
+    <t>vlxjvos2514@naver.com</t>
+  </si>
+  <si>
+    <t>홍성은</t>
+  </si>
+  <si>
+    <t>cilly03@naver.com</t>
+  </si>
+  <si>
+    <t>이예랑</t>
+  </si>
+  <si>
+    <t>yoodj4424@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>유동재</t>
+  </si>
+  <si>
+    <t>rudqh0501@gmail.com</t>
+  </si>
+  <si>
+    <t>이경보</t>
+  </si>
+  <si>
+    <t>kswon115@naver.com</t>
+  </si>
+  <si>
+    <t>김시원</t>
+  </si>
+  <si>
+    <t>duddms5818@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 광고홍보학과</t>
+  </si>
+  <si>
+    <t>한영은</t>
+  </si>
+  <si>
+    <t>equi236@naver.com</t>
+  </si>
+  <si>
+    <t>박철웅</t>
+  </si>
+  <si>
+    <t>lju5422@naver.com</t>
+  </si>
+  <si>
+    <t>임준섭</t>
+  </si>
+  <si>
+    <t>k01050531595@gmail.com</t>
+  </si>
+  <si>
+    <t>권승현</t>
+  </si>
+  <si>
+    <t>jaejae7070@naver.com</t>
+  </si>
+  <si>
+    <t>이재빈</t>
+  </si>
+  <si>
+    <t>scw0922@naver.com</t>
+  </si>
+  <si>
+    <t>신채원</t>
+  </si>
+  <si>
+    <t>wnyuna04@gmail.com</t>
+  </si>
+  <si>
+    <t>주윤아</t>
+  </si>
+  <si>
+    <t>choeunland@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>송민혁</t>
+  </si>
+  <si>
+    <t>dayoun2004@naver.com</t>
+  </si>
+  <si>
+    <t>이다윤</t>
+  </si>
+  <si>
+    <t>rjfrh11@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 전공</t>
+  </si>
+  <si>
+    <t>서무혁</t>
+  </si>
+  <si>
+    <t>thomas1114@naver.com</t>
+  </si>
+  <si>
+    <t>이재석</t>
+  </si>
+  <si>
+    <t>yesssssssun@naver.com</t>
+  </si>
+  <si>
+    <t>노선우</t>
+  </si>
+  <si>
+    <t>wjdalsdl9391@naver.com</t>
+  </si>
+  <si>
+    <t>엄정민</t>
+  </si>
+  <si>
+    <t>ryan.jin1005@gmail.com</t>
+  </si>
+  <si>
+    <t>진승재</t>
+  </si>
+  <si>
+    <t>changyu0202@naver.com</t>
+  </si>
+  <si>
+    <t>이찬규</t>
+  </si>
+  <si>
+    <t>changyw6729@naver.com</t>
+  </si>
+  <si>
+    <t>장연욱</t>
+  </si>
+  <si>
+    <t>bb2611323@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능</t>
+  </si>
+  <si>
+    <t>방유빈</t>
+  </si>
+  <si>
+    <t>rbdms0619@gmail.com</t>
+  </si>
+  <si>
+    <t>김규은</t>
+  </si>
+  <si>
+    <t>teo48253@gmail.com</t>
+  </si>
+  <si>
+    <t>이수혁</t>
+  </si>
+  <si>
+    <t>kimsemin3@naver.com</t>
+  </si>
+  <si>
+    <t>김세민</t>
+  </si>
+  <si>
+    <t>p51008085@gmail.com</t>
+  </si>
+  <si>
+    <t>박준수</t>
+  </si>
+  <si>
+    <t>haohao873@naver.com</t>
+  </si>
+  <si>
+    <t>안지연</t>
+  </si>
+  <si>
+    <t>hjp0107@naver.com</t>
+  </si>
+  <si>
+    <t>컨텐츠IT</t>
+  </si>
+  <si>
+    <t>홍진표</t>
+  </si>
+  <si>
+    <t>ncc11068@naver.com</t>
+  </si>
+  <si>
+    <t>이규린</t>
+  </si>
+  <si>
+    <t>kimbitna7890@nver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고홍보학과 </t>
+  </si>
+  <si>
+    <t>김빛나</t>
+  </si>
+  <si>
+    <t>ghkwls336@naver.com</t>
+  </si>
+  <si>
+    <t>장다온</t>
+  </si>
+  <si>
+    <t>daeun8937@naver.com</t>
+  </si>
+  <si>
+    <t>최다은</t>
+  </si>
+  <si>
+    <t>hyj1141@naver.com</t>
+  </si>
+  <si>
+    <t>한예지</t>
+  </si>
+  <si>
+    <t>tjgussla77@naver.com</t>
+  </si>
+  <si>
+    <t>차서현</t>
+  </si>
+  <si>
+    <t>luis0815@naver.com</t>
+  </si>
+  <si>
+    <t>양지민</t>
+  </si>
+  <si>
+    <t>sharkyminzz@gmail.com</t>
+  </si>
+  <si>
+    <t>서민형</t>
+  </si>
+  <si>
+    <t>homelearn04@naver.com</t>
+  </si>
+  <si>
+    <t>박종욱</t>
+  </si>
+  <si>
+    <t>milovany03@gmail.com</t>
+  </si>
+  <si>
+    <t>박진옥</t>
+  </si>
+  <si>
+    <t>hyeeun7356@naver.com</t>
+  </si>
+  <si>
+    <t>유혜은</t>
+  </si>
+  <si>
+    <t>tpdud0049@naver.com</t>
+  </si>
+  <si>
+    <t>김세영</t>
+  </si>
+  <si>
+    <t>sungjuwon1@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>성주원</t>
+  </si>
+  <si>
+    <t>han7434380@naver.com</t>
+  </si>
+  <si>
+    <t>한진우</t>
+  </si>
+  <si>
+    <t>junesumin12@naver.com</t>
+  </si>
+  <si>
+    <t>전수민</t>
+  </si>
+  <si>
+    <t>hyeseongi81@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜성</t>
+  </si>
+  <si>
+    <t>rlaek1116@naver.com</t>
+  </si>
+  <si>
+    <t>김다정</t>
+  </si>
+  <si>
+    <t>kimyoung4808@gmail.com</t>
+  </si>
+  <si>
+    <t>김승영</t>
+  </si>
+  <si>
+    <t>juhee040413@naver.com</t>
+  </si>
+  <si>
+    <t>박주희</t>
+  </si>
+  <si>
+    <t>rkdtmdrn1018@naver.com</t>
+  </si>
+  <si>
+    <t>강승구</t>
+  </si>
+  <si>
+    <t>kangsamy2@gmail.com</t>
+  </si>
+  <si>
+    <t>강새미</t>
+  </si>
+  <si>
+    <t>rkgus8286@naver.com</t>
+  </si>
+  <si>
+    <t>이주영</t>
+  </si>
+  <si>
+    <t>eunku7188@naver.com</t>
+  </si>
+  <si>
+    <t>곽은규</t>
+  </si>
+  <si>
+    <t>taeho4756@naver.com</t>
+  </si>
+  <si>
+    <t>조태호</t>
+  </si>
+  <si>
+    <t>hshs0104746@naver.com</t>
+  </si>
+  <si>
+    <t>최희수</t>
+  </si>
+  <si>
+    <t>mng437@naver.com</t>
+  </si>
+  <si>
+    <t>김민규</t>
+  </si>
+  <si>
+    <t>hyunbin7379@gmail.com</t>
+  </si>
+  <si>
+    <t>정현빈</t>
+  </si>
+  <si>
+    <t>dlthfdk2@naver.com</t>
+  </si>
+  <si>
+    <t>이솔아</t>
+  </si>
+  <si>
+    <t>heeyeon_02@naver.com</t>
+  </si>
+  <si>
+    <t>이희연</t>
+  </si>
+  <si>
+    <t>20192988@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>조성모</t>
+  </si>
+  <si>
+    <t>yoogyeonggg@naver.com</t>
+  </si>
+  <si>
+    <t>최유경</t>
+  </si>
+  <si>
+    <t>0227jsh@naver.com</t>
+  </si>
+  <si>
+    <t>장서희</t>
+  </si>
+  <si>
+    <t>iamjjum@naver.com</t>
+  </si>
+  <si>
+    <t>yoo040128@naver.com</t>
+  </si>
+  <si>
+    <t>유승주</t>
+  </si>
+  <si>
+    <t>amielee1997@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>yunbi0405@naver.com</t>
+  </si>
+  <si>
+    <t>최윤비</t>
+  </si>
+  <si>
+    <t>kim061806@naver.com</t>
+  </si>
+  <si>
+    <t>김윤서</t>
   </si>
 </sst>
 </file>
@@ -27716,6 +28337,8140 @@
         <v>35</v>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" s="2">
+        <v>45242.33639534722</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D306" s="3">
+        <v>2.0221714E7</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J306" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K306" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L306" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M306" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N306" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O306" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P306" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q306" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R306" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S306" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T306" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U306" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V306" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W306" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X306" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y306" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z306" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA306" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2">
+        <v>45242.34707033564</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D307" s="3">
+        <v>2.0217037E7</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J307" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K307" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L307" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M307" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N307" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O307" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P307" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q307" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R307" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S307" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T307" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U307" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V307" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W307" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X307" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y307" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z307" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA307" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2">
+        <v>45242.354231516205</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D308" s="3">
+        <v>2.0223721E7</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J308" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K308" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L308" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M308" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N308" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O308" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P308" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q308" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R308" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S308" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T308" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U308" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V308" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W308" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X308" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y308" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z308" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA308" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2">
+        <v>45242.37063049768</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D309" s="3">
+        <v>2.0222355E7</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J309" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K309" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L309" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M309" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N309" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O309" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P309" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q309" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R309" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S309" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T309" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U309" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V309" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W309" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X309" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y309" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z309" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA309" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2">
+        <v>45242.40464335648</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D310" s="3">
+        <v>2.0232355E7</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J310" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K310" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L310" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M310" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N310" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O310" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P310" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q310" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R310" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S310" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T310" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U310" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V310" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W310" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X310" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y310" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z310" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA310" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2">
+        <v>45242.40466409722</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D311" s="3">
+        <v>2.0223208E7</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J311" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K311" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L311" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M311" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N311" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O311" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P311" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q311" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R311" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S311" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T311" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U311" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V311" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W311" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X311" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y311" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z311" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA311" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2">
+        <v>45242.40634836805</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D312" s="3">
+        <v>2.0231235E7</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J312" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K312" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L312" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M312" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N312" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O312" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P312" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q312" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R312" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S312" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T312" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U312" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="V312" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W312" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X312" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y312" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z312" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA312" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2">
+        <v>45242.4215219676</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D313" s="3">
+        <v>2.0183639E7</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M313" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N313" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O313" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P313" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q313" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R313" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S313" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T313" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U313" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V313" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W313" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X313" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y313" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z313" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA313" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2">
+        <v>45242.44342892361</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D314" s="3">
+        <v>2.0235199E7</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I314" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J314" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L314" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M314" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N314" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O314" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P314" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q314" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R314" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S314" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T314" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U314" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V314" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W314" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X314" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y314" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z314" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA314" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2">
+        <v>45242.44352425926</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D315" s="3">
+        <v>2.0233634E7</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J315" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L315" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M315" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N315" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O315" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P315" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q315" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R315" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S315" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T315" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U315" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V315" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W315" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X315" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y315" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z315" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA315" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2">
+        <v>45242.47594950232</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D316" s="3">
+        <v>2.0217149E7</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M316" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N316" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O316" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P316" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q316" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R316" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S316" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T316" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U316" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V316" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W316" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X316" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y316" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z316" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA316" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2">
+        <v>45242.504890509255</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D317" s="3">
+        <v>2.0193331E7</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J317" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M317" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N317" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O317" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P317" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q317" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R317" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S317" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T317" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U317" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V317" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W317" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X317" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y317" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z317" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA317" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2">
+        <v>45242.520606226855</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D318" s="3">
+        <v>2.019231E7</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J318" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K318" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M318" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N318" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O318" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P318" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q318" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R318" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S318" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T318" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U318" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V318" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W318" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X318" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y318" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z318" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA318" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2">
+        <v>45242.52130086806</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D319" s="3">
+        <v>2.0218001E7</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K319" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L319" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M319" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N319" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O319" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P319" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q319" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R319" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S319" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T319" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U319" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V319" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W319" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X319" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y319" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z319" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA319" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2">
+        <v>45242.54462756944</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D320" s="3">
+        <v>2.023343E7</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J320" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K320" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L320" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M320" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N320" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O320" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P320" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q320" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R320" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S320" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T320" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U320" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="V320" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W320" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X320" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y320" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z320" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA320" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2">
+        <v>45242.55504633102</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D321" s="3">
+        <v>2.0235208E7</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J321" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K321" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L321" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M321" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N321" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O321" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P321" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q321" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R321" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S321" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T321" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U321" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V321" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W321" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X321" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y321" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z321" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA321" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2">
+        <v>45242.56401930556</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D322" s="3">
+        <v>2.0196515E7</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J322" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K322" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L322" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M322" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N322" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O322" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P322" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q322" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R322" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S322" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T322" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U322" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V322" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W322" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X322" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y322" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z322" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA322" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2">
+        <v>45242.566622638886</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D323" s="3">
+        <v>2.0213606E7</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K323" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L323" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M323" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N323" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O323" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P323" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q323" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R323" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S323" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T323" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U323" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V323" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W323" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X323" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y323" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z323" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA323" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2">
+        <v>45242.568314131946</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D324" s="3">
+        <v>2.0192319E7</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J324" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K324" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L324" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M324" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N324" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O324" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P324" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q324" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R324" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="S324" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T324" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U324" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V324" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W324" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X324" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y324" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z324" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA324" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2">
+        <v>45242.61490998842</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D325" s="3">
+        <v>2.0222561E7</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J325" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K325" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L325" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M325" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N325" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O325" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P325" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q325" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R325" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S325" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T325" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U325" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V325" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W325" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X325" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y325" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z325" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA325" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2">
+        <v>45242.61520690972</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D326" s="3">
+        <v>2.0223537E7</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J326" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L326" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M326" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N326" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O326" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P326" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q326" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R326" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S326" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T326" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U326" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V326" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W326" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X326" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y326" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z326" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA326" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2">
+        <v>45242.64940127315</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D327" s="3">
+        <v>2.0236293E7</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J327" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K327" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L327" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M327" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N327" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O327" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P327" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q327" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R327" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S327" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T327" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U327" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V327" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W327" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X327" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y327" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z327" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA327" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2">
+        <v>45242.65061305556</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D328" s="3">
+        <v>2.021232E7</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G328" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L328" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M328" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N328" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O328" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P328" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q328" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R328" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="S328" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="T328" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U328" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V328" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W328" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X328" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y328" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z328" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA328" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2">
+        <v>45242.660177557875</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D329" s="3">
+        <v>2.0232101E7</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K329" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L329" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M329" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N329" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O329" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P329" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q329" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R329" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S329" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T329" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U329" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V329" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W329" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X329" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y329" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z329" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA329" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2">
+        <v>45242.69020354167</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D330" s="3">
+        <v>2.0232995E7</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I330" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J330" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K330" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L330" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M330" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N330" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O330" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P330" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q330" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R330" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="S330" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T330" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U330" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V330" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W330" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X330" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y330" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z330" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA330" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2">
+        <v>45242.69719006945</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D331" s="3">
+        <v>2.0232327E7</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I331" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J331" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K331" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L331" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M331" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N331" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O331" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P331" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q331" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R331" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S331" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T331" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U331" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V331" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W331" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X331" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y331" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z331" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA331" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2">
+        <v>45242.70330166667</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D332" s="3">
+        <v>2.0233513E7</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K332" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L332" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M332" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N332" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O332" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P332" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q332" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R332" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S332" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T332" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U332" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V332" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W332" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X332" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y332" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z332" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA332" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2">
+        <v>45242.70562516204</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D333" s="3">
+        <v>2.0231052E7</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J333" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K333" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L333" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M333" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N333" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O333" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P333" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q333" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R333" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S333" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T333" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U333" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V333" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W333" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X333" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y333" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z333" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA333" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2">
+        <v>45242.71218258102</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D334" s="3">
+        <v>2.023296E7</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I334" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J334" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K334" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L334" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M334" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N334" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O334" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P334" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q334" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R334" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S334" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T334" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U334" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V334" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W334" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X334" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y334" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z334" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA334" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2">
+        <v>45242.71351109954</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D335" s="3">
+        <v>2.0236781E7</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J335" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K335" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L335" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M335" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N335" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O335" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P335" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q335" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R335" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="S335" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T335" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U335" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V335" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W335" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X335" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y335" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z335" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA335" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2">
+        <v>45242.721491550925</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D336" s="3">
+        <v>2.0217081E7</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J336" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K336" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L336" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M336" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N336" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O336" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P336" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q336" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R336" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S336" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T336" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U336" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V336" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W336" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X336" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y336" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z336" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA336" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2">
+        <v>45242.728810138884</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D337" s="3">
+        <v>2.0232909E7</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I337" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J337" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K337" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L337" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M337" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N337" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O337" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P337" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q337" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R337" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S337" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T337" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U337" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V337" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W337" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X337" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y337" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z337" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA337" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2">
+        <v>45242.73284709491</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D338" s="3">
+        <v>2.0233847E7</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I338" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J338" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K338" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L338" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M338" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N338" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O338" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P338" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q338" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R338" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S338" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T338" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U338" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V338" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W338" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X338" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y338" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z338" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA338" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2">
+        <v>45242.73370482639</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D339" s="3">
+        <v>2.0203739E7</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R339" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S339" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T339" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U339" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V339" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W339" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X339" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y339" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z339" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA339" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2">
+        <v>45242.73509346065</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D340" s="3">
+        <v>2.0221629E7</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J340" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K340" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L340" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M340" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N340" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O340" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P340" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q340" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R340" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S340" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T340" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U340" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V340" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W340" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X340" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y340" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z340" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA340" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2">
+        <v>45242.741037430555</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="D341" s="3">
+        <v>2.0233232E7</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I341" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J341" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K341" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L341" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M341" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N341" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O341" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P341" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q341" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R341" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S341" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T341" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U341" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V341" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W341" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X341" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y341" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z341" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA341" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2">
+        <v>45242.74218622685</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D342" s="3">
+        <v>2.0233417E7</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I342" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J342" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K342" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L342" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M342" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N342" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O342" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P342" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q342" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R342" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S342" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T342" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U342" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V342" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W342" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X342" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y342" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z342" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA342" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2">
+        <v>45242.7477054051</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D343" s="3">
+        <v>2.023293E7</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J343" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K343" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L343" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M343" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N343" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O343" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P343" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q343" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R343" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S343" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T343" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U343" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V343" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W343" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X343" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y343" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z343" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA343" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2">
+        <v>45242.74865486111</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="D344" s="3">
+        <v>2.0192638E7</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J344" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K344" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L344" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M344" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N344" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O344" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P344" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q344" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R344" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S344" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T344" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U344" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V344" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W344" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X344" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y344" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z344" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA344" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2">
+        <v>45242.76287721065</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D345" s="3">
+        <v>2.0181617E7</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I345" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J345" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K345" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L345" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M345" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N345" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O345" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P345" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q345" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R345" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S345" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T345" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U345" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V345" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W345" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X345" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y345" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z345" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA345" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2">
+        <v>45242.786637638885</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D346" s="3">
+        <v>2.0192348E7</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J346" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K346" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L346" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M346" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N346" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O346" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P346" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q346" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R346" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="S346" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T346" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U346" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V346" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W346" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X346" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y346" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z346" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA346" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2">
+        <v>45242.78780690972</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D347" s="3">
+        <v>2.0232102E7</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I347" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J347" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K347" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L347" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M347" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N347" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O347" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P347" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q347" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R347" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S347" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T347" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U347" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V347" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W347" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X347" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y347" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z347" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA347" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2">
+        <v>45242.80034209491</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D348" s="3">
+        <v>2.0221631E7</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I348" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J348" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K348" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L348" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M348" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N348" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O348" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P348" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q348" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R348" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S348" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T348" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U348" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V348" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W348" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X348" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y348" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z348" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA348" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2">
+        <v>45242.80186011574</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D349" s="3">
+        <v>2.0236256E7</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I349" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J349" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K349" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L349" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M349" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N349" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O349" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P349" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q349" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R349" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S349" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T349" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U349" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V349" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W349" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X349" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y349" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z349" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA349" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2">
+        <v>45242.80559070602</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D350" s="3">
+        <v>2.0236294E7</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G350" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I350" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J350" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K350" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L350" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M350" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N350" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O350" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P350" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q350" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R350" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S350" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T350" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U350" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V350" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W350" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X350" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y350" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z350" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA350" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2">
+        <v>45242.80958586806</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="D351" s="3">
+        <v>2.0181054E7</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I351" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J351" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K351" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L351" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M351" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N351" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O351" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P351" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q351" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R351" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S351" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="T351" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U351" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V351" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W351" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X351" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y351" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z351" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA351" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2">
+        <v>45242.81255623842</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D352" s="3">
+        <v>2.0236752E7</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I352" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J352" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K352" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L352" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M352" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N352" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O352" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P352" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q352" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R352" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S352" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T352" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U352" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V352" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W352" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X352" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y352" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z352" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA352" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2">
+        <v>45242.8128180787</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D353" s="3">
+        <v>2.0193328E7</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I353" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J353" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K353" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L353" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M353" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N353" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O353" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P353" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q353" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R353" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S353" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="T353" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U353" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V353" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W353" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X353" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y353" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z353" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA353" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2">
+        <v>45242.81741175926</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D354" s="3">
+        <v>2.0201627E7</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G354" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I354" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J354" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K354" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L354" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M354" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N354" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O354" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P354" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q354" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R354" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S354" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T354" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U354" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V354" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="W354" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X354" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y354" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z354" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA354" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2">
+        <v>45242.823775729164</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D355" s="3">
+        <v>2.0233922E7</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G355" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I355" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J355" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K355" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L355" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M355" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N355" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O355" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P355" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q355" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R355" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S355" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T355" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U355" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V355" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W355" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X355" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y355" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z355" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA355" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2">
+        <v>45242.82422571759</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D356" s="3">
+        <v>2.0231617E7</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I356" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J356" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K356" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L356" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M356" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N356" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O356" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P356" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q356" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R356" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S356" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T356" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U356" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V356" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W356" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X356" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y356" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z356" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA356" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2">
+        <v>45242.82717122685</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D357" s="3">
+        <v>2.0192999E7</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G357" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I357" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J357" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K357" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L357" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M357" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N357" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O357" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P357" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q357" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R357" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="S357" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T357" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U357" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V357" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="W357" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X357" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y357" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z357" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA357" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2">
+        <v>45242.831187013886</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D358" s="3">
+        <v>2.023263E7</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G358" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H358" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I358" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J358" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K358" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L358" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M358" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N358" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O358" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P358" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q358" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R358" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S358" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T358" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U358" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V358" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W358" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X358" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y358" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z358" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA358" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2">
+        <v>45242.836651944446</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D359" s="3">
+        <v>2.0232573E7</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G359" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H359" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I359" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J359" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K359" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L359" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M359" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N359" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O359" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P359" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q359" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R359" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S359" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T359" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U359" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V359" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W359" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X359" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y359" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z359" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA359" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2">
+        <v>45242.85108662037</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D360" s="3">
+        <v>2.0236729E7</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I360" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J360" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K360" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L360" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M360" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N360" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O360" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P360" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q360" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R360" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S360" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T360" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U360" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V360" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W360" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X360" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y360" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z360" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA360" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2">
+        <v>45242.85157077546</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D361" s="3">
+        <v>2.0213803E7</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G361" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H361" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I361" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J361" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K361" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L361" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M361" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N361" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O361" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P361" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q361" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R361" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S361" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="T361" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U361" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V361" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W361" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X361" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y361" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z361" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA361" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2">
+        <v>45242.85560913195</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D362" s="3">
+        <v>2.023342E7</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I362" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J362" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K362" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L362" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M362" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N362" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O362" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P362" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q362" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R362" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S362" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T362" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U362" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V362" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W362" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X362" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y362" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z362" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA362" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2">
+        <v>45242.86818528935</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D363" s="3">
+        <v>2.0233607E7</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H363" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I363" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J363" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K363" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L363" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M363" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N363" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O363" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P363" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q363" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R363" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S363" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T363" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="U363" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V363" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W363" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X363" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y363" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z363" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA363" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2">
+        <v>45242.869553888886</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D364" s="3">
+        <v>2.0236726E7</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H364" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I364" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J364" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K364" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L364" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M364" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N364" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O364" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P364" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q364" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R364" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S364" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T364" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U364" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V364" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W364" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X364" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y364" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z364" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA364" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2">
+        <v>45242.879866620366</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D365" s="3">
+        <v>2.0231525E7</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G365" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H365" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I365" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J365" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K365" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L365" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M365" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N365" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O365" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P365" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q365" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R365" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S365" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T365" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U365" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V365" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W365" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X365" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y365" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z365" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA365" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2">
+        <v>45242.887710625</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D366" s="3">
+        <v>2.0205277E7</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I366" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J366" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K366" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L366" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M366" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N366" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O366" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P366" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q366" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R366" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="S366" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="T366" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U366" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V366" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W366" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X366" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y366" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z366" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA366" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2">
+        <v>45242.888492349535</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D367" s="3">
+        <v>2.0233529E7</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H367" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I367" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J367" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K367" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L367" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M367" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N367" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O367" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P367" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q367" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R367" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S367" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T367" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U367" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V367" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W367" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X367" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y367" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z367" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA367" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2">
+        <v>45242.89206590278</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D368" s="3">
+        <v>2.0222609E7</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I368" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J368" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K368" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L368" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M368" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N368" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O368" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P368" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q368" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R368" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S368" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T368" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U368" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V368" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W368" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X368" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y368" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z368" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA368" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2">
+        <v>45242.89350984954</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D369" s="3">
+        <v>2.0236287E7</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I369" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J369" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K369" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L369" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M369" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N369" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O369" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P369" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q369" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R369" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S369" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T369" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U369" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V369" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W369" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X369" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y369" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z369" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA369" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2">
+        <v>45242.896157361116</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D370" s="3">
+        <v>2.0232753E7</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I370" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J370" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K370" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L370" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M370" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N370" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O370" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P370" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q370" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R370" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S370" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T370" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U370" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V370" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W370" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X370" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y370" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z370" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA370" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2">
+        <v>45242.90172599537</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D371" s="3">
+        <v>2.0217095E7</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I371" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J371" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K371" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L371" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M371" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N371" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O371" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P371" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q371" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R371" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S371" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T371" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U371" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V371" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W371" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X371" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y371" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z371" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA371" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2">
+        <v>45242.909133611116</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D372" s="3">
+        <v>2.0236295E7</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I372" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J372" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K372" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L372" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M372" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N372" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O372" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P372" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q372" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R372" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S372" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T372" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U372" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V372" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W372" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X372" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y372" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z372" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA372" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2">
+        <v>45242.9092306713</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D373" s="3">
+        <v>2.0232336E7</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H373" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I373" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J373" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K373" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L373" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M373" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N373" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O373" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P373" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q373" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R373" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S373" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T373" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U373" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V373" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W373" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X373" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y373" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z373" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA373" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2">
+        <v>45242.911247048614</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D374" s="3">
+        <v>2.0236136E7</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G374" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H374" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I374" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J374" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K374" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L374" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M374" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N374" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O374" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P374" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q374" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R374" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S374" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T374" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U374" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V374" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W374" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X374" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y374" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z374" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA374" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2">
+        <v>45242.91518625</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D375" s="3">
+        <v>2.023517E7</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R375" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S375" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T375" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U375" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V375" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W375" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X375" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y375" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z375" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA375" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2">
+        <v>45242.921435254626</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D376" s="3">
+        <v>2.0202223E7</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G376" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H376" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I376" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J376" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K376" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L376" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M376" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N376" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O376" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P376" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q376" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R376" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S376" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T376" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U376" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V376" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W376" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X376" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y376" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z376" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA376" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2">
+        <v>45242.92279287037</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D377" s="3">
+        <v>2.0203824E7</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G377" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H377" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I377" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J377" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K377" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L377" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M377" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N377" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O377" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P377" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q377" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R377" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S377" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T377" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U377" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V377" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W377" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X377" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y377" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z377" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA377" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2">
+        <v>45242.92569604167</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378" s="3">
+        <v>2.0233914E7</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G378" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H378" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I378" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J378" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K378" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L378" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M378" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N378" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O378" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P378" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q378" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R378" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S378" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="T378" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U378" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="V378" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W378" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X378" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y378" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z378" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA378" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2">
+        <v>45242.92859917824</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="D379" s="3">
+        <v>2.0215173E7</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="F379" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G379" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H379" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I379" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J379" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K379" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L379" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M379" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N379" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O379" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P379" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q379" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R379" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S379" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="T379" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U379" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V379" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W379" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X379" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y379" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z379" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA379" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2">
+        <v>45242.931071238425</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D380" s="3">
+        <v>2.0224152E7</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G380" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H380" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I380" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J380" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K380" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L380" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M380" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N380" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O380" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P380" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q380" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R380" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S380" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T380" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="U380" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V380" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W380" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X380" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y380" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z380" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA380" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2">
+        <v>45242.93212861111</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D381" s="3">
+        <v>2.0236289E7</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H381" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I381" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J381" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K381" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L381" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M381" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N381" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O381" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P381" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q381" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R381" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S381" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T381" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U381" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V381" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W381" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X381" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y381" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z381" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA381" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2">
+        <v>45242.93402888889</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D382" s="3">
+        <v>2.0224137E7</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="F382" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G382" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H382" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I382" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J382" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K382" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L382" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M382" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N382" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O382" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P382" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q382" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R382" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S382" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T382" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U382" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V382" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W382" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X382" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y382" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z382" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA382" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2">
+        <v>45242.93549916666</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D383" s="3">
+        <v>2.0232704E7</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="F383" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G383" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H383" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I383" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J383" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K383" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L383" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M383" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N383" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O383" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P383" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q383" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R383" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S383" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T383" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U383" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V383" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W383" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X383" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y383" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z383" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA383" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2">
+        <v>45242.948295995375</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D384" s="3">
+        <v>2.0233709E7</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G384" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H384" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I384" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J384" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K384" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L384" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M384" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N384" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O384" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P384" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q384" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R384" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S384" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T384" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U384" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V384" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W384" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X384" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y384" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z384" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA384" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2">
+        <v>45242.951208391205</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D385" s="3">
+        <v>2.0233817E7</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G385" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H385" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I385" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J385" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K385" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L385" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M385" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N385" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O385" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P385" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q385" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R385" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S385" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T385" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U385" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V385" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W385" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X385" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y385" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z385" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA385" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2">
+        <v>45242.95696949074</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D386" s="3">
+        <v>2.0232902E7</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H386" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I386" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J386" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K386" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L386" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M386" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N386" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O386" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P386" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q386" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R386" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S386" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T386" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U386" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V386" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W386" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X386" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y386" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z386" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA386" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2">
+        <v>45242.96426756945</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D387" s="3">
+        <v>2.0232302E7</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="F387" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H387" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I387" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J387" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K387" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L387" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M387" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N387" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O387" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P387" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q387" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R387" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S387" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T387" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U387" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V387" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W387" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X387" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y387" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z387" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA387" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2">
+        <v>45242.96469681713</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D388" s="3">
+        <v>2.0233729E7</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H388" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I388" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J388" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K388" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L388" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M388" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N388" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O388" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P388" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q388" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R388" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S388" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T388" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U388" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V388" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W388" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X388" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y388" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z388" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA388" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2">
+        <v>45242.96579746528</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D389" s="3">
+        <v>2.0212601E7</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G389" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H389" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I389" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J389" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K389" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L389" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M389" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N389" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O389" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P389" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q389" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R389" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S389" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T389" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U389" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V389" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W389" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X389" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y389" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z389" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA389" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2">
+        <v>45242.965812002316</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D390" s="3">
+        <v>2.0213732E7</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G390" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H390" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I390" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J390" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K390" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L390" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M390" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N390" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O390" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P390" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q390" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R390" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S390" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T390" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U390" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V390" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W390" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X390" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y390" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z390" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA390" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2">
+        <v>45242.970271087965</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D391" s="3">
+        <v>2.0232639E7</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H391" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I391" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J391" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K391" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L391" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M391" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N391" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O391" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P391" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q391" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R391" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S391" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T391" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U391" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V391" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W391" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X391" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y391" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z391" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA391" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2">
+        <v>45242.97213547454</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D392" s="3">
+        <v>2.0232105E7</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H392" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I392" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J392" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K392" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L392" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M392" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N392" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O392" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P392" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q392" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R392" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S392" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T392" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U392" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V392" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W392" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X392" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y392" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z392" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA392" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2">
+        <v>45242.9797527662</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D393" s="3">
+        <v>2.0233036E7</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H393" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I393" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J393" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K393" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L393" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M393" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N393" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O393" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P393" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q393" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R393" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S393" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T393" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U393" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="V393" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W393" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X393" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y393" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z393" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA393" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2">
+        <v>45242.98159393518</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D394" s="3">
+        <v>2.0192743E7</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G394" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H394" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I394" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J394" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K394" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L394" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M394" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N394" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O394" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P394" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q394" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R394" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S394" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T394" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="U394" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V394" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W394" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X394" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y394" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z394" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA394" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2">
+        <v>45242.98159673611</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D395" s="3">
+        <v>2.0231536E7</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G395" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H395" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I395" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J395" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K395" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L395" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M395" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N395" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O395" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P395" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q395" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R395" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="S395" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T395" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="U395" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V395" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W395" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X395" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y395" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z395" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA395" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2">
+        <v>45242.98464646991</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D396" s="3">
+        <v>2.0192988E7</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H396" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I396" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J396" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K396" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L396" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M396" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N396" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O396" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P396" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q396" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R396" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="S396" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="T396" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="U396" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V396" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W396" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X396" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y396" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z396" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA396" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2">
+        <v>45242.98517508102</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D397" s="3">
+        <v>2.0231238E7</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G397" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H397" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I397" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J397" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K397" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L397" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M397" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N397" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O397" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P397" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q397" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R397" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S397" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T397" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U397" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V397" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W397" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X397" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y397" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z397" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA397" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2">
+        <v>45242.98745677083</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D398" s="3">
+        <v>2.0233843E7</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="F398" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G398" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H398" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I398" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J398" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K398" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L398" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M398" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N398" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O398" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P398" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q398" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R398" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S398" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T398" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U398" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V398" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W398" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X398" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y398" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z398" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA398" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2">
+        <v>45242.99005090278</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D399" s="3">
+        <v>2.0233606E7</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G399" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H399" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I399" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J399" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K399" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L399" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M399" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N399" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O399" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P399" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q399" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R399" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S399" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T399" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U399" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V399" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W399" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X399" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y399" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z399" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA399" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2">
+        <v>45242.99016829861</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D400" s="3">
+        <v>2.0232622E7</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G400" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H400" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I400" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J400" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K400" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L400" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M400" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N400" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O400" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P400" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q400" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R400" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S400" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T400" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U400" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V400" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W400" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X400" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y400" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z400" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA400" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2">
+        <v>45242.991165150466</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D401" s="3">
+        <v>2.0217159E7</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H401" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I401" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J401" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K401" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L401" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M401" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N401" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O401" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P401" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q401" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R401" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S401" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T401" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U401" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V401" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W401" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X401" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y401" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z401" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA401" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2">
+        <v>45243.00595715278</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D402" s="3">
+        <v>2.019527E7</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G402" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H402" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I402" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J402" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K402" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L402" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M402" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N402" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O402" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P402" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q402" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R402" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S402" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T402" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U402" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V402" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W402" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X402" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y402" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z402" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA402" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2">
+        <v>45243.036069884256</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D403" s="3">
+        <v>2.0236227E7</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G403" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H403" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I403" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J403" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K403" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L403" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M403" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N403" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O403" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P403" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q403" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R403" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S403" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T403" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U403" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V403" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W403" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X403" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y403" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z403" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA403" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/BFI231106_tmp.xlsx
+++ b/R/data/BFI231106_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8066" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8786" uniqueCount="991">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2753,6 +2753,237 @@
   </si>
   <si>
     <t>김윤서</t>
+  </si>
+  <si>
+    <t>skyblue990080@gmail.com</t>
+  </si>
+  <si>
+    <t>윤나영</t>
+  </si>
+  <si>
+    <t>20162715@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김현욱</t>
+  </si>
+  <si>
+    <t>sexytaegeun@gmail.com</t>
+  </si>
+  <si>
+    <t>성태근</t>
+  </si>
+  <si>
+    <t>ryan.kang04@gmail.com</t>
+  </si>
+  <si>
+    <t>강우석</t>
+  </si>
+  <si>
+    <t>limmh96@gmail.com</t>
+  </si>
+  <si>
+    <t>임민호</t>
+  </si>
+  <si>
+    <t>kimhongik03@naver.com</t>
+  </si>
+  <si>
+    <t>김홍익</t>
+  </si>
+  <si>
+    <t>yoonsm4538@gmail.com</t>
+  </si>
+  <si>
+    <t>윤상민</t>
+  </si>
+  <si>
+    <t>yeshin05@naver.com</t>
+  </si>
+  <si>
+    <t>최예원</t>
+  </si>
+  <si>
+    <t>zesprie@naver.com</t>
+  </si>
+  <si>
+    <t>강미소</t>
+  </si>
+  <si>
+    <t>byeol1710@naver.com</t>
+  </si>
+  <si>
+    <t>김별</t>
+  </si>
+  <si>
+    <t>yeon-jin22@naver.com</t>
+  </si>
+  <si>
+    <t>최연진</t>
+  </si>
+  <si>
+    <t>1004eunsei@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스 학과</t>
+  </si>
+  <si>
+    <t>조은세</t>
+  </si>
+  <si>
+    <t>skdud5438@naver.com</t>
+  </si>
+  <si>
+    <t>곽나영</t>
+  </si>
+  <si>
+    <t>kddong99@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터전공</t>
+  </si>
+  <si>
+    <t>김상준</t>
+  </si>
+  <si>
+    <t>ckckguswns@naver.com</t>
+  </si>
+  <si>
+    <t>차현준</t>
+  </si>
+  <si>
+    <t>ssb060333@gmail.com</t>
+  </si>
+  <si>
+    <t>신수빈</t>
+  </si>
+  <si>
+    <t>cheeseru0808@naver.com</t>
+  </si>
+  <si>
+    <t>minky1501@gmail.com</t>
+  </si>
+  <si>
+    <t>최민경</t>
+  </si>
+  <si>
+    <t>siyun8477@gmail.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>jangyc3972@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤채</t>
+  </si>
+  <si>
+    <t>huijeongj019@gmail.com</t>
+  </si>
+  <si>
+    <t>조희정</t>
+  </si>
+  <si>
+    <t>dutmddus1219@naver.com</t>
+  </si>
+  <si>
+    <t>영어영문</t>
+  </si>
+  <si>
+    <t>여승연</t>
+  </si>
+  <si>
+    <t>back8028@naver.com</t>
+  </si>
+  <si>
+    <t>백재영</t>
+  </si>
+  <si>
+    <t>sjh8358000@naver.com</t>
+  </si>
+  <si>
+    <t>손지후</t>
+  </si>
+  <si>
+    <t>dlgpals27@naver.com</t>
+  </si>
+  <si>
+    <t>이혜민</t>
+  </si>
+  <si>
+    <t>ans1929@gmail.com</t>
+  </si>
+  <si>
+    <t>조유진</t>
+  </si>
+  <si>
+    <t>sherisim@naver.com</t>
+  </si>
+  <si>
+    <t>심시원</t>
+  </si>
+  <si>
+    <t>osy2858@gmail.com</t>
+  </si>
+  <si>
+    <t>오수연</t>
+  </si>
+  <si>
+    <t>hkmcosmos1@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스</t>
+  </si>
+  <si>
+    <t>한기민</t>
+  </si>
+  <si>
+    <t>jongbaep17s@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>박종배</t>
+  </si>
+  <si>
+    <t>ai20233638@gmail.com</t>
+  </si>
+  <si>
+    <t>장예은</t>
+  </si>
+  <si>
+    <t>ssabaljukinsaekki@gmail.com</t>
+  </si>
+  <si>
+    <t>정민석</t>
+  </si>
+  <si>
+    <t>kuopty2758@gmail.com</t>
+  </si>
+  <si>
+    <t>강채원</t>
+  </si>
+  <si>
+    <t>tjr5457@naver.com</t>
+  </si>
+  <si>
+    <t>정현석</t>
+  </si>
+  <si>
+    <t>h20205265@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최준영</t>
+  </si>
+  <si>
+    <t>limjs1006@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부</t>
+  </si>
+  <si>
+    <t>임진서</t>
   </si>
 </sst>
 </file>
@@ -36471,6 +36702,2994 @@
         <v>36</v>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" s="2">
+        <v>45243.12179340278</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D404" s="3">
+        <v>2.0233828E7</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="F404" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G404" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H404" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I404" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J404" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K404" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L404" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M404" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N404" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O404" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P404" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q404" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R404" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S404" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T404" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U404" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V404" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W404" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X404" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y404" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z404" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA404" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2">
+        <v>45243.47498965278</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D405" s="3">
+        <v>2.0162715E7</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G405" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H405" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I405" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J405" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K405" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L405" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M405" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N405" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O405" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P405" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q405" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R405" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S405" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T405" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U405" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V405" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W405" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X405" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y405" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z405" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA405" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2">
+        <v>45243.546195937495</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D406" s="3">
+        <v>2.0232118E7</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H406" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I406" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J406" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K406" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L406" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M406" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N406" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O406" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P406" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q406" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R406" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S406" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="T406" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="U406" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V406" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W406" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X406" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y406" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z406" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA406" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2">
+        <v>45243.546249756946</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D407" s="3">
+        <v>2.0235105E7</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G407" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H407" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I407" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J407" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K407" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L407" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M407" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N407" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O407" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P407" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q407" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R407" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S407" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T407" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U407" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V407" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W407" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X407" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y407" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z407" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA407" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2">
+        <v>45243.563395624995</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D408" s="3">
+        <v>2.0232632E7</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G408" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H408" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I408" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J408" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K408" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L408" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M408" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N408" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O408" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P408" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q408" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R408" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="S408" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="T408" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="U408" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V408" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W408" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X408" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y408" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z408" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA408" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2">
+        <v>45243.571176087964</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D409" s="3">
+        <v>2.0232114E7</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G409" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H409" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I409" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J409" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K409" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L409" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M409" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N409" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O409" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P409" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q409" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R409" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S409" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T409" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U409" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V409" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W409" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X409" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y409" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z409" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA409" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2">
+        <v>45243.61105226852</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D410" s="3">
+        <v>2.0221626E7</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="F410" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G410" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H410" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I410" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J410" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K410" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L410" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M410" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N410" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O410" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P410" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q410" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R410" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S410" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T410" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U410" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="V410" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W410" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X410" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y410" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z410" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA410" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2">
+        <v>45243.63699954861</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D411" s="3">
+        <v>2.0236639E7</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G411" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H411" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I411" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J411" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K411" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L411" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M411" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N411" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O411" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P411" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q411" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R411" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S411" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T411" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U411" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V411" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W411" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X411" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y411" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z411" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA411" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2">
+        <v>45243.6505736574</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D412" s="3">
+        <v>2.0182101E7</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G412" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H412" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I412" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J412" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K412" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L412" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M412" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N412" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O412" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P412" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q412" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R412" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S412" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T412" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U412" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V412" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W412" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X412" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y412" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z412" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA412" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2">
+        <v>45243.67545582176</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D413" s="3">
+        <v>2.0226218E7</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G413" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H413" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I413" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J413" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K413" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L413" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M413" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N413" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O413" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P413" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q413" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R413" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S413" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T413" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U413" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V413" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W413" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X413" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y413" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z413" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA413" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2">
+        <v>45243.77156340278</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D414" s="3">
+        <v>2.0233256E7</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H414" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I414" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J414" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K414" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L414" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M414" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N414" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O414" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P414" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q414" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R414" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S414" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T414" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U414" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V414" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W414" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X414" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y414" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z414" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA414" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2">
+        <v>45243.79548359953</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="D415" s="3">
+        <v>2.0226423E7</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H415" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I415" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J415" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K415" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L415" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M415" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N415" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O415" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P415" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q415" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R415" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S415" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T415" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U415" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V415" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W415" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X415" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y415" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z415" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA415" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2">
+        <v>45243.84141476852</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D416" s="3">
+        <v>2.0232803E7</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I416" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J416" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K416" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L416" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M416" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N416" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O416" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P416" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q416" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R416" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S416" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T416" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U416" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V416" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W416" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X416" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y416" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z416" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA416" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2">
+        <v>45243.873500625</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="D417" s="3">
+        <v>2.0181205E7</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G417" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I417" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J417" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K417" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L417" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M417" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N417" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O417" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P417" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q417" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R417" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S417" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T417" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U417" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V417" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W417" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X417" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y417" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z417" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA417" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2">
+        <v>45243.907241064815</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D418" s="3">
+        <v>2.0192233E7</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="F418" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G418" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I418" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J418" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K418" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L418" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M418" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N418" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O418" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P418" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q418" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R418" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S418" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T418" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U418" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V418" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W418" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X418" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y418" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z418" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA418" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2">
+        <v>45243.923453298616</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D419" s="3">
+        <v>2.0222614E7</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G419" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H419" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I419" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J419" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K419" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L419" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M419" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N419" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O419" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P419" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q419" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R419" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S419" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T419" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U419" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V419" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W419" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X419" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y419" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z419" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA419" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2">
+        <v>45243.92895155093</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D420" s="3">
+        <v>2.0201606E7</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H420" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I420" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J420" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K420" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L420" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M420" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N420" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O420" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P420" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q420" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R420" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S420" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T420" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U420" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V420" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W420" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X420" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y420" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z420" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA420" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2">
+        <v>45243.9787455787</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D421" s="3">
+        <v>2.0233644E7</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G421" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H421" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I421" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J421" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K421" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L421" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M421" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N421" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O421" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P421" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q421" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R421" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S421" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T421" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U421" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V421" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W421" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X421" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y421" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z421" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA421" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2">
+        <v>45243.983132141206</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D422" s="3">
+        <v>2.0236224E7</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H422" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I422" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J422" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K422" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L422" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M422" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N422" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O422" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P422" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q422" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R422" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S422" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T422" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U422" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V422" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W422" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X422" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y422" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z422" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA422" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2">
+        <v>45243.99315180555</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D423" s="3">
+        <v>2.0236771E7</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H423" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I423" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J423" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K423" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L423" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M423" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N423" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O423" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P423" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q423" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R423" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S423" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T423" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U423" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V423" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W423" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X423" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y423" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z423" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA423" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2">
+        <v>45244.03302971065</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D424" s="3">
+        <v>2.023396E7</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="F424" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G424" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H424" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I424" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J424" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K424" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L424" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M424" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N424" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O424" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P424" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q424" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R424" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S424" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T424" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U424" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V424" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W424" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X424" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y424" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z424" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA424" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2">
+        <v>45244.16091547454</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="D425" s="3">
+        <v>2.0201217E7</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G425" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H425" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I425" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J425" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K425" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L425" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M425" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N425" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O425" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P425" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q425" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R425" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S425" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T425" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U425" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="V425" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W425" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X425" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y425" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z425" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA425" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2">
+        <v>45244.42668710648</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D426" s="3">
+        <v>2.0202972E7</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I426" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J426" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K426" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L426" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M426" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N426" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O426" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P426" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q426" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R426" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S426" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T426" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U426" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V426" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W426" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X426" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y426" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z426" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA426" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2">
+        <v>45244.44589239583</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D427" s="3">
+        <v>2.0233934E7</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G427" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H427" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I427" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J427" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K427" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L427" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M427" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N427" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O427" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P427" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q427" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R427" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S427" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T427" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U427" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V427" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W427" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X427" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y427" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z427" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA427" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2">
+        <v>45244.46739464121</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D428" s="3">
+        <v>2.0236767E7</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H428" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I428" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J428" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K428" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L428" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M428" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N428" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O428" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P428" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q428" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R428" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S428" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T428" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U428" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V428" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W428" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X428" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y428" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z428" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA428" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2">
+        <v>45244.48172065972</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D429" s="3">
+        <v>2.020275E7</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G429" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H429" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I429" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J429" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K429" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L429" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M429" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N429" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O429" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P429" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q429" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R429" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S429" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T429" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U429" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V429" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W429" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X429" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y429" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z429" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA429" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2">
+        <v>45244.50175940972</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D430" s="3">
+        <v>2.0236741E7</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G430" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H430" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I430" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J430" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K430" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L430" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M430" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N430" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O430" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P430" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q430" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R430" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S430" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="T430" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U430" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V430" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W430" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X430" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y430" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z430" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA430" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2">
+        <v>45244.56339214121</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D431" s="3">
+        <v>2.0233826E7</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="F431" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G431" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H431" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I431" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J431" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K431" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L431" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M431" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N431" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O431" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P431" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q431" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R431" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S431" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T431" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U431" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V431" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W431" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X431" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y431" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z431" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA431" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2">
+        <v>45244.5962584838</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="D432" s="3">
+        <v>2.0226429E7</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H432" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I432" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J432" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K432" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L432" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M432" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N432" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O432" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P432" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q432" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R432" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S432" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T432" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U432" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V432" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W432" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X432" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y432" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z432" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA432" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2">
+        <v>45244.596262465275</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="D433" s="3">
+        <v>2.022641E7</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H433" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I433" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J433" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K433" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L433" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M433" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N433" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O433" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P433" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q433" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R433" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="S433" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T433" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U433" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V433" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="W433" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X433" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y433" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z433" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA433" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2">
+        <v>45244.71098025463</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D434" s="3">
+        <v>2.0233638E7</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H434" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I434" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J434" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K434" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L434" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M434" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N434" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O434" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P434" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q434" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R434" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S434" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T434" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U434" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V434" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W434" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X434" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y434" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z434" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA434" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2">
+        <v>45244.75598883102</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D435" s="3">
+        <v>2.0235252E7</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H435" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I435" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J435" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K435" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L435" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M435" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N435" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O435" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P435" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q435" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R435" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S435" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T435" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U435" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V435" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W435" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X435" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y435" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z435" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA435" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2">
+        <v>45244.88746042824</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D436" s="3">
+        <v>2.0232303E7</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H436" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I436" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J436" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K436" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L436" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M436" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N436" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O436" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P436" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q436" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R436" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S436" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T436" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U436" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V436" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W436" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X436" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y436" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z436" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA436" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2">
+        <v>45244.90568787037</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D437" s="3">
+        <v>2.0193344E7</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H437" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I437" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J437" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K437" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L437" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M437" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N437" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O437" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P437" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q437" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R437" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S437" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T437" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U437" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V437" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W437" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X437" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y437" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z437" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA437" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2">
+        <v>45244.97436097222</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D438" s="3">
+        <v>2.0205265E7</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H438" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I438" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J438" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K438" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L438" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M438" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N438" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O438" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P438" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q438" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R438" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S438" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T438" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U438" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V438" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W438" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X438" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y438" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z438" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA438" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2">
+        <v>45245.425904097225</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D439" s="3">
+        <v>2.0236424E7</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H439" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I439" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J439" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K439" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L439" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M439" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N439" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O439" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P439" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q439" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R439" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="S439" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T439" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="U439" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V439" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W439" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X439" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y439" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z439" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA439" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/BFI231106_tmp.xlsx
+++ b/R/data/BFI231106_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8786" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9486" uniqueCount="1063">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2984,6 +2984,222 @@
   </si>
   <si>
     <t>임진서</t>
+  </si>
+  <si>
+    <t>qasw0529@naver.com</t>
+  </si>
+  <si>
+    <t>wusl0327@naver.com</t>
+  </si>
+  <si>
+    <t>신지연</t>
+  </si>
+  <si>
+    <t>impact0219@naver.com</t>
+  </si>
+  <si>
+    <t>김서언</t>
+  </si>
+  <si>
+    <t>yenahpark@naver.com</t>
+  </si>
+  <si>
+    <t>사학과</t>
+  </si>
+  <si>
+    <t>박예나</t>
+  </si>
+  <si>
+    <t>thdrkdud456456@gmail.com</t>
+  </si>
+  <si>
+    <t>송가영</t>
+  </si>
+  <si>
+    <t>choiky0413@gmail.com</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>loul0412@naver.com</t>
+  </si>
+  <si>
+    <t>김가령</t>
+  </si>
+  <si>
+    <t>lma240228@gmail.com</t>
+  </si>
+  <si>
+    <t>김재민</t>
+  </si>
+  <si>
+    <t>tlaaldhktlaa@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">박심미 </t>
+  </si>
+  <si>
+    <t>jkw1391@naver.com</t>
+  </si>
+  <si>
+    <t>김지원</t>
+  </si>
+  <si>
+    <t>phanbe1@naver.com</t>
+  </si>
+  <si>
+    <t>박한비</t>
+  </si>
+  <si>
+    <t>daysyad@naver.com</t>
+  </si>
+  <si>
+    <t>최소연</t>
+  </si>
+  <si>
+    <t>qkralgus121@gmail.com</t>
+  </si>
+  <si>
+    <t>박미현</t>
+  </si>
+  <si>
+    <t>yowon0302@gmail.com</t>
+  </si>
+  <si>
+    <t>러시아</t>
+  </si>
+  <si>
+    <t>최요원</t>
+  </si>
+  <si>
+    <t>seonyeong0429@gmail.com</t>
+  </si>
+  <si>
+    <t>노선영</t>
+  </si>
+  <si>
+    <t>zero040409@gmail.com</t>
+  </si>
+  <si>
+    <t>차하율</t>
+  </si>
+  <si>
+    <t>sarah04113@naver.com</t>
+  </si>
+  <si>
+    <t>박사랑</t>
+  </si>
+  <si>
+    <t>eunhorui1029@gmail.com</t>
+  </si>
+  <si>
+    <t>조은호</t>
+  </si>
+  <si>
+    <t>sdg93712426@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>신동건</t>
+  </si>
+  <si>
+    <t>tjtmdwns3504@gmail.com</t>
+  </si>
+  <si>
+    <t>서승준</t>
+  </si>
+  <si>
+    <t>wasabi0724@naver.com</t>
+  </si>
+  <si>
+    <t>홍지윤</t>
+  </si>
+  <si>
+    <t>abcdefg76500@naver.com</t>
+  </si>
+  <si>
+    <t>노희망</t>
+  </si>
+  <si>
+    <t>urica45642@gmail.com</t>
+  </si>
+  <si>
+    <t>유시현</t>
+  </si>
+  <si>
+    <t>dhwnsgh740@gmail.com</t>
+  </si>
+  <si>
+    <t>오준호</t>
+  </si>
+  <si>
+    <t>jinhw3j9@gmail.com</t>
+  </si>
+  <si>
+    <t>정진환</t>
+  </si>
+  <si>
+    <t>dufud7004@naver.com</t>
+  </si>
+  <si>
+    <t>윤여령</t>
+  </si>
+  <si>
+    <t>seongheun2004@gmail.com</t>
+  </si>
+  <si>
+    <t>지성흔</t>
+  </si>
+  <si>
+    <t>rian213@naver.com</t>
+  </si>
+  <si>
+    <t>안리안</t>
+  </si>
+  <si>
+    <t>dosilver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
+  </si>
+  <si>
+    <t>tkdgjs9768@naver.com</t>
+  </si>
+  <si>
+    <t>임상헌</t>
+  </si>
+  <si>
+    <t>year0309@naver.com</t>
+  </si>
+  <si>
+    <t>박소희</t>
+  </si>
+  <si>
+    <t>dms95123@naver.com</t>
+  </si>
+  <si>
+    <t>김은별</t>
+  </si>
+  <si>
+    <t>shdbsgh0305@naver.com</t>
+  </si>
+  <si>
+    <t>노윤호</t>
+  </si>
+  <si>
+    <t>dldmlcks56@naver.com</t>
+  </si>
+  <si>
+    <t>이의찬</t>
+  </si>
+  <si>
+    <t>was193567@gmail.com</t>
+  </si>
+  <si>
+    <t>권유진</t>
   </si>
 </sst>
 </file>
@@ -39690,6 +39906,2911 @@
         <v>38</v>
       </c>
     </row>
+    <row r="440">
+      <c r="A440" s="2">
+        <v>45245.43710871528</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D440" s="3">
+        <v>2.0232508E7</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H440" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I440" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J440" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K440" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L440" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M440" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N440" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O440" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P440" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q440" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R440" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S440" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T440" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U440" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V440" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W440" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X440" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y440" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z440" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA440" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2">
+        <v>45245.45873804398</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D441" s="3">
+        <v>2.0193934E7</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G441" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H441" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I441" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J441" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K441" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L441" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M441" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N441" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O441" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P441" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q441" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R441" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S441" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T441" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U441" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V441" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W441" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X441" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y441" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z441" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA441" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2">
+        <v>45245.59063202546</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D442" s="3">
+        <v>2.0236218E7</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H442" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I442" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J442" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K442" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L442" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M442" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N442" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O442" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P442" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q442" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R442" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S442" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T442" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U442" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V442" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W442" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X442" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y442" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z442" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA442" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2">
+        <v>45245.60127047454</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="D443" s="3">
+        <v>2.0221035E7</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H443" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I443" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J443" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K443" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L443" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M443" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N443" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O443" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P443" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q443" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R443" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S443" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T443" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U443" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V443" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W443" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X443" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y443" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z443" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA443" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2">
+        <v>45245.60236079861</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D444" s="3">
+        <v>2.0222968E7</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H444" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I444" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J444" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K444" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L444" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M444" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N444" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O444" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P444" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q444" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R444" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S444" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T444" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U444" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V444" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W444" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X444" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y444" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z444" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA444" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2">
+        <v>45245.60700996528</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D445" s="3">
+        <v>2.0236168E7</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H445" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I445" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J445" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K445" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L445" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M445" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N445" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O445" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P445" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q445" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R445" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S445" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T445" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U445" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V445" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W445" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X445" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y445" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z445" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA445" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2">
+        <v>45245.64298512731</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D446" s="3">
+        <v>2.0231201E7</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F446" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H446" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I446" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J446" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K446" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L446" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M446" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N446" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O446" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P446" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q446" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R446" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S446" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T446" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U446" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="V446" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W446" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X446" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y446" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z446" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA446" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2">
+        <v>45245.66521710648</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D447" s="3">
+        <v>2.0236608E7</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F447" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H447" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I447" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J447" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K447" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L447" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M447" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N447" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O447" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P447" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q447" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R447" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S447" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T447" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U447" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V447" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W447" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X447" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y447" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z447" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA447" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2">
+        <v>45245.67594858796</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D448" s="3">
+        <v>2.0217069E7</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H448" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I448" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J448" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K448" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L448" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M448" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N448" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O448" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P448" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q448" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R448" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S448" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T448" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U448" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V448" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W448" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X448" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y448" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z448" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA448" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2">
+        <v>45245.68448091435</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D449" s="3">
+        <v>2.0212611E7</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F449" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H449" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I449" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J449" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K449" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L449" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M449" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N449" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O449" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P449" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q449" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R449" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S449" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T449" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U449" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V449" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W449" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X449" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y449" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z449" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA449" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2">
+        <v>45245.73386350695</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D450" s="3">
+        <v>2.0236244E7</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H450" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I450" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J450" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K450" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L450" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M450" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N450" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O450" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P450" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q450" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R450" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S450" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T450" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U450" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V450" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W450" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X450" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y450" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z450" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA450" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2">
+        <v>45245.879661238425</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D451" s="3">
+        <v>2.0232586E7</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F451" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H451" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I451" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J451" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K451" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L451" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M451" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N451" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O451" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P451" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q451" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R451" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S451" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T451" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U451" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V451" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W451" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X451" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y451" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z451" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA451" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2">
+        <v>45245.88975061342</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D452" s="3">
+        <v>2.0236236E7</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H452" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I452" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J452" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K452" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L452" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M452" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N452" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O452" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P452" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q452" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R452" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S452" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T452" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U452" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V452" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W452" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X452" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y452" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z452" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA452" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2">
+        <v>45245.91505260416</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D453" s="3">
+        <v>2.022173E7</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F453" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H453" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I453" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J453" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K453" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L453" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M453" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N453" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O453" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P453" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q453" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R453" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S453" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T453" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U453" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V453" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W453" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X453" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y453" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z453" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA453" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2">
+        <v>45245.964199803246</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D454" s="3">
+        <v>2.0236235E7</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H454" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I454" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J454" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K454" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L454" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M454" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N454" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O454" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P454" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q454" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R454" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="S454" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T454" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U454" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V454" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W454" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X454" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y454" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z454" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA454" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2">
+        <v>45246.042067268514</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D455" s="3">
+        <v>2.023305E7</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F455" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G455" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H455" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I455" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J455" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K455" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L455" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M455" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N455" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O455" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P455" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q455" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R455" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S455" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T455" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U455" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="V455" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W455" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X455" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y455" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z455" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA455" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2">
+        <v>45246.04775556713</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D456" s="3">
+        <v>2.0232532E7</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G456" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H456" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I456" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J456" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K456" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L456" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M456" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N456" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O456" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P456" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q456" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R456" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="S456" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T456" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U456" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V456" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W456" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X456" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y456" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z456" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA456" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2">
+        <v>45246.04801925926</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D457" s="3">
+        <v>2.0223047E7</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H457" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I457" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J457" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K457" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L457" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M457" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N457" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O457" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P457" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q457" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R457" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S457" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T457" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U457" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V457" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W457" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X457" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y457" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z457" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA457" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2">
+        <v>45246.06373201389</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D458" s="3">
+        <v>2.0233322E7</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H458" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I458" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J458" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K458" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L458" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M458" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N458" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O458" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P458" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q458" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R458" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S458" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T458" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U458" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="V458" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W458" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X458" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y458" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z458" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA458" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2">
+        <v>45246.38897326389</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D459" s="3">
+        <v>2.0202331E7</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F459" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H459" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I459" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J459" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K459" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L459" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M459" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N459" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O459" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P459" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q459" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R459" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S459" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T459" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U459" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V459" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="W459" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X459" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y459" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z459" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA459" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2">
+        <v>45246.45104153935</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D460" s="3">
+        <v>2.0236645E7</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F460" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H460" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I460" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J460" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K460" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L460" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M460" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N460" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O460" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P460" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q460" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R460" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S460" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T460" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="U460" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V460" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W460" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X460" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y460" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z460" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA460" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2">
+        <v>45246.521007511576</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D461" s="3">
+        <v>2.0232946E7</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F461" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H461" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I461" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J461" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K461" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L461" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M461" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N461" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O461" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P461" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q461" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R461" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S461" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T461" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U461" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V461" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W461" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X461" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y461" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z461" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA461" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2">
+        <v>45246.52970413194</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D462" s="3">
+        <v>2.0235215E7</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F462" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H462" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I462" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J462" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K462" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L462" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M462" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N462" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O462" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P462" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q462" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R462" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S462" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T462" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U462" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V462" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W462" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X462" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y462" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z462" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA462" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2">
+        <v>45246.62761467593</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D463" s="3">
+        <v>2.0216258E7</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H463" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I463" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J463" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K463" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L463" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M463" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N463" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O463" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P463" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q463" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R463" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S463" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T463" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U463" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V463" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W463" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X463" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y463" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z463" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA463" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2">
+        <v>45246.633331550926</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D464" s="3">
+        <v>2.0236776E7</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H464" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I464" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J464" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K464" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L464" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M464" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N464" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O464" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P464" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q464" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R464" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S464" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T464" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U464" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V464" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W464" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X464" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y464" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z464" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA464" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2">
+        <v>45246.66286024306</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D465" s="3">
+        <v>2.0236269E7</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F465" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H465" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I465" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J465" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K465" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L465" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M465" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N465" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O465" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P465" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q465" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R465" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="S465" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="T465" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="U465" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V465" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="W465" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X465" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y465" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z465" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA465" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2">
+        <v>45246.66949971065</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D466" s="3">
+        <v>2.0234151E7</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F466" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H466" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I466" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J466" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K466" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L466" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M466" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N466" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O466" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P466" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q466" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R466" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S466" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T466" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U466" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V466" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W466" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X466" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y466" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z466" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA466" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2">
+        <v>45246.67593697917</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D467" s="3">
+        <v>2.0233823E7</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F467" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G467" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H467" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I467" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J467" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K467" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L467" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M467" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N467" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O467" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P467" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q467" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R467" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="S467" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T467" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U467" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V467" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W467" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X467" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y467" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z467" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA467" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2">
+        <v>45246.70988804398</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D468" s="3">
+        <v>2.0212233E7</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F468" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H468" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I468" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J468" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K468" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L468" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M468" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N468" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O468" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P468" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q468" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R468" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="S468" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T468" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U468" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V468" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="W468" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X468" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y468" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z468" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA468" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2">
+        <v>45246.758359988424</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D469" s="3">
+        <v>2.0212837E7</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F469" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H469" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I469" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J469" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K469" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L469" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M469" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N469" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O469" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P469" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q469" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R469" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="S469" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T469" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U469" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V469" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W469" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X469" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y469" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z469" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA469" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2">
+        <v>45246.78195446759</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D470" s="3">
+        <v>2.022295E7</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F470" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H470" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I470" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J470" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K470" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L470" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M470" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N470" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O470" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P470" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q470" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R470" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S470" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T470" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U470" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V470" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W470" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X470" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y470" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z470" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA470" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2">
+        <v>45246.79624964121</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D471" s="3">
+        <v>2.0232317E7</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F471" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G471" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H471" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I471" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J471" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K471" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L471" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M471" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N471" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O471" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P471" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q471" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R471" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S471" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T471" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U471" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V471" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W471" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X471" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y471" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z471" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA471" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2">
+        <v>45246.798191458336</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D472" s="3">
+        <v>2.023171E7</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F472" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G472" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H472" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I472" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J472" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K472" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L472" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M472" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N472" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O472" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P472" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q472" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R472" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S472" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T472" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U472" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V472" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W472" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X472" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y472" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z472" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA472" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2">
+        <v>45246.86038347222</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D473" s="3">
+        <v>2.0173144E7</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F473" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G473" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H473" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I473" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J473" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K473" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L473" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M473" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N473" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O473" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P473" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q473" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R473" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S473" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T473" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U473" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V473" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W473" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X473" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y473" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z473" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA473" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2">
+        <v>45246.8671731713</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D474" s="3">
+        <v>2.0233303E7</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F474" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G474" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H474" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I474" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J474" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K474" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L474" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M474" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N474" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O474" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P474" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q474" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R474" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S474" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T474" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U474" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="V474" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W474" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X474" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y474" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z474" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA474" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/BFI231106_tmp.xlsx
+++ b/R/data/BFI231106_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9486" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9586" uniqueCount="1073">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3200,6 +3200,36 @@
   </si>
   <si>
     <t>권유진</t>
+  </si>
+  <si>
+    <t>qkrwjdwns0526@gmail.com</t>
+  </si>
+  <si>
+    <t>박정준</t>
+  </si>
+  <si>
+    <t>janghangyeol0304@gmail.com</t>
+  </si>
+  <si>
+    <t>장한결</t>
+  </si>
+  <si>
+    <t>spb012@naver.com</t>
+  </si>
+  <si>
+    <t>모수빈</t>
+  </si>
+  <si>
+    <t>whgdktlfgdj2@naver.com</t>
+  </si>
+  <si>
+    <t>변용찬</t>
+  </si>
+  <si>
+    <t>vertigojohn95@gmail.com</t>
+  </si>
+  <si>
+    <t>김정후</t>
   </si>
 </sst>
 </file>
@@ -42811,6 +42841,421 @@
         <v>35</v>
       </c>
     </row>
+    <row r="475">
+      <c r="A475" s="2">
+        <v>45246.89006771991</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D475" s="3">
+        <v>2.0236129E7</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F475" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G475" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H475" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I475" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J475" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K475" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L475" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M475" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N475" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O475" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P475" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q475" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R475" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S475" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T475" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U475" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V475" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W475" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X475" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y475" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z475" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA475" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2">
+        <v>45246.919359548614</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D476" s="3">
+        <v>2.0222838E7</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F476" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H476" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I476" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J476" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K476" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L476" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M476" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N476" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O476" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P476" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q476" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R476" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S476" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T476" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U476" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V476" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="W476" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X476" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y476" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z476" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA476" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2">
+        <v>45246.97755310185</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D477" s="3">
+        <v>2.023253E7</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F477" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H477" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I477" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J477" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K477" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L477" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M477" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N477" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O477" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P477" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q477" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R477" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S477" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T477" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U477" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="V477" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W477" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X477" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y477" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z477" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA477" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2">
+        <v>45247.01608534722</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D478" s="3">
+        <v>2.0181051E7</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F478" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G478" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H478" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I478" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J478" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K478" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L478" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M478" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N478" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O478" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P478" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q478" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R478" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S478" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T478" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U478" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V478" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W478" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X478" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y478" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z478" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA478" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2">
+        <v>45247.117928506945</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D479" s="3">
+        <v>2.0182517E7</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F479" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G479" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H479" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I479" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J479" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K479" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L479" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M479" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N479" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O479" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P479" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q479" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R479" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S479" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T479" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U479" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V479" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W479" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X479" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y479" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z479" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA479" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/BFI231106_tmp.xlsx
+++ b/R/data/BFI231106_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9586" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9866" uniqueCount="1103">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3230,6 +3230,96 @@
   </si>
   <si>
     <t>김정후</t>
+  </si>
+  <si>
+    <t>mjh8429@naver.com</t>
+  </si>
+  <si>
+    <t>민지혜</t>
+  </si>
+  <si>
+    <t>tkddnjs8070@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중국학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">정상원 </t>
+  </si>
+  <si>
+    <t>k00e0096@naver.com</t>
+  </si>
+  <si>
+    <t>임민지</t>
+  </si>
+  <si>
+    <t>suani3176@gmail.com</t>
+  </si>
+  <si>
+    <t>박수안</t>
+  </si>
+  <si>
+    <t>hmw1019@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>한민우</t>
+  </si>
+  <si>
+    <t>tjwls7140@naver.com</t>
+  </si>
+  <si>
+    <t>황서진</t>
+  </si>
+  <si>
+    <t>jimin040719@naver.com</t>
+  </si>
+  <si>
+    <t>박지민</t>
+  </si>
+  <si>
+    <t>csnoi@naver.com</t>
+  </si>
+  <si>
+    <t>원현서</t>
+  </si>
+  <si>
+    <t>hogin0912@naver.com</t>
+  </si>
+  <si>
+    <t>신호진</t>
+  </si>
+  <si>
+    <t>rlaalswl9362@naver.com</t>
+  </si>
+  <si>
+    <t>ai로봇</t>
+  </si>
+  <si>
+    <t>sjm3756@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>서장민</t>
+  </si>
+  <si>
+    <t>pearlzero@naver.com</t>
+  </si>
+  <si>
+    <t>진주영</t>
+  </si>
+  <si>
+    <t>lucky021217@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
+  </si>
+  <si>
+    <t>miso993722@naver.com</t>
+  </si>
+  <si>
+    <t>김미소</t>
   </si>
 </sst>
 </file>
@@ -43256,6 +43346,1168 @@
         <v>38</v>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="2">
+        <v>45247.381761550925</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D480" s="3">
+        <v>2.0192535E7</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F480" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H480" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I480" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J480" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K480" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L480" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M480" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N480" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O480" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P480" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q480" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R480" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S480" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T480" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="U480" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V480" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W480" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X480" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y480" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z480" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA480" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2">
+        <v>45247.384483483795</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D481" s="3">
+        <v>2.0191536E7</v>
+      </c>
+      <c r="E481" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F481" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G481" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H481" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I481" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J481" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K481" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L481" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M481" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N481" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O481" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P481" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q481" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R481" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S481" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T481" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U481" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V481" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W481" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X481" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y481" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z481" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA481" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2">
+        <v>45247.38908190972</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D482" s="3">
+        <v>2.0202355E7</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F482" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H482" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I482" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J482" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K482" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L482" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M482" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N482" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O482" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P482" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q482" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R482" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S482" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T482" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U482" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V482" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W482" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X482" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y482" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z482" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA482" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2">
+        <v>45247.44126265046</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D483" s="3">
+        <v>2.0232328E7</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F483" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H483" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I483" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J483" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K483" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L483" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M483" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N483" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O483" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P483" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q483" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R483" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="S483" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="T483" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="U483" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V483" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W483" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X483" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y483" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z483" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA483" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2">
+        <v>45247.56271174768</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D484" s="3">
+        <v>2.0236785E7</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F484" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H484" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I484" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J484" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K484" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L484" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M484" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N484" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O484" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P484" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q484" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R484" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S484" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T484" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U484" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V484" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W484" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X484" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y484" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z484" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA484" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2">
+        <v>45247.58250609954</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D485" s="3">
+        <v>2.0233353E7</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H485" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I485" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J485" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K485" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L485" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M485" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N485" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O485" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P485" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q485" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R485" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S485" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T485" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U485" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V485" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W485" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X485" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y485" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z485" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA485" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2">
+        <v>45247.61198027778</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D486" s="3">
+        <v>2.0232616E7</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F486" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H486" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I486" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J486" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K486" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L486" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M486" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N486" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O486" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P486" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q486" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R486" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S486" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="T486" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U486" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V486" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W486" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X486" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y486" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z486" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA486" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2">
+        <v>45247.613917256946</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D487" s="3">
+        <v>2.0202992E7</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F487" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H487" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I487" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J487" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K487" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L487" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M487" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N487" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O487" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P487" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q487" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R487" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S487" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="T487" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U487" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V487" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W487" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X487" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y487" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z487" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA487" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2">
+        <v>45247.62516297454</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D488" s="3">
+        <v>2.0232829E7</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F488" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H488" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I488" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J488" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K488" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L488" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M488" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N488" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O488" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P488" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q488" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R488" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S488" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T488" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U488" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V488" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W488" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X488" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y488" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z488" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA488" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2">
+        <v>45247.6270915625</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D489" s="3">
+        <v>2.0226712E7</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F489" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H489" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I489" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J489" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K489" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L489" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M489" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N489" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O489" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P489" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q489" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R489" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S489" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T489" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U489" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="V489" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W489" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X489" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y489" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z489" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA489" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2">
+        <v>45247.62783840278</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D490" s="3">
+        <v>2.0163118E7</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F490" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G490" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H490" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I490" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J490" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K490" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L490" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M490" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N490" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O490" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P490" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q490" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R490" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S490" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T490" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U490" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="V490" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W490" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X490" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y490" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z490" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA490" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2">
+        <v>45247.64010711806</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D491" s="3">
+        <v>2.0216289E7</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R491" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="S491" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T491" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U491" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V491" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W491" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X491" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y491" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z491" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA491" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2">
+        <v>45247.643531435184</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D492" s="3">
+        <v>2.0212621E7</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F492" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G492" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H492" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I492" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J492" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K492" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L492" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M492" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N492" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O492" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P492" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q492" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R492" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="S492" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T492" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U492" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V492" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W492" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X492" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y492" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z492" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA492" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2">
+        <v>45247.66170979167</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D493" s="3">
+        <v>2.0235122E7</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F493" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H493" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I493" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J493" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K493" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L493" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M493" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N493" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O493" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P493" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q493" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R493" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S493" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T493" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U493" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V493" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W493" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X493" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y493" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z493" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA493" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/BFI231106_tmp.xlsx
+++ b/R/data/BFI231106_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9866" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9986" uniqueCount="1116">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3320,6 +3320,45 @@
   </si>
   <si>
     <t>김미소</t>
+  </si>
+  <si>
+    <t>kxjenlee@naver.com</t>
+  </si>
+  <si>
+    <t>이제인</t>
+  </si>
+  <si>
+    <t>kutae1228@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반도체 디스플레이스쿨 / 반도체 전공 </t>
+  </si>
+  <si>
+    <t>구태환</t>
+  </si>
+  <si>
+    <t>xpjungwoo0518@kakao.com</t>
+  </si>
+  <si>
+    <t>이정우</t>
+  </si>
+  <si>
+    <t>gksthgus3322@naver.com</t>
+  </si>
+  <si>
+    <t>한소현</t>
+  </si>
+  <si>
+    <t>ohr3876@gmail.com</t>
+  </si>
+  <si>
+    <t>정철</t>
+  </si>
+  <si>
+    <t>zzx3488@naver.com</t>
+  </si>
+  <si>
+    <t>이인혁</t>
   </si>
 </sst>
 </file>
@@ -44508,6 +44547,504 @@
         <v>37</v>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" s="2">
+        <v>45247.682874756945</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="D494" s="3">
+        <v>2.0226417E7</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H494" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I494" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J494" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K494" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L494" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M494" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N494" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O494" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P494" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q494" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R494" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="S494" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T494" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U494" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="V494" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W494" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X494" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y494" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z494" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA494" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2">
+        <v>45247.729801168985</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D495" s="3">
+        <v>2.0183301E7</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H495" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I495" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J495" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K495" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L495" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M495" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N495" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O495" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P495" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q495" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R495" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S495" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T495" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U495" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="V495" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W495" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X495" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y495" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z495" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA495" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2">
+        <v>45247.73997732639</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D496" s="3">
+        <v>2.0231626E7</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H496" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I496" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J496" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K496" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L496" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M496" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N496" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O496" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P496" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q496" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R496" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S496" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T496" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U496" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V496" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W496" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X496" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y496" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z496" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA496" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2">
+        <v>45247.77094887731</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D497" s="3">
+        <v>2.0236303E7</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H497" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I497" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J497" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K497" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L497" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M497" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N497" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O497" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P497" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q497" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R497" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="S497" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T497" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U497" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V497" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W497" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X497" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y497" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z497" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA497" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2">
+        <v>45247.781685231486</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D498" s="3">
+        <v>2.0233035E7</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H498" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I498" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J498" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K498" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L498" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M498" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N498" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O498" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P498" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q498" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R498" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S498" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T498" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="U498" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V498" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="W498" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X498" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y498" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z498" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA498" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2">
+        <v>45247.80018709491</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D499" s="3">
+        <v>2.0192953E7</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H499" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I499" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J499" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K499" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L499" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M499" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N499" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O499" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P499" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q499" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R499" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S499" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T499" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="U499" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="V499" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W499" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X499" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y499" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z499" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA499" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/BFI231106_tmp.xlsx
+++ b/R/data/BFI231106_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9986" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10126" uniqueCount="1131">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3359,6 +3359,51 @@
   </si>
   <si>
     <t>이인혁</t>
+  </si>
+  <si>
+    <t>go990512@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터 학과</t>
+  </si>
+  <si>
+    <t>천동민</t>
+  </si>
+  <si>
+    <t>gata0523@gmail.com</t>
+  </si>
+  <si>
+    <t>서형록</t>
+  </si>
+  <si>
+    <t>ruye0114@naver.com</t>
+  </si>
+  <si>
+    <t>류영서</t>
+  </si>
+  <si>
+    <t>leetaeyang00@gmail.com</t>
+  </si>
+  <si>
+    <t>이태양</t>
+  </si>
+  <si>
+    <t>sungyeon0803@gmail.com</t>
+  </si>
+  <si>
+    <t>최성연</t>
+  </si>
+  <si>
+    <t>soojin020524@gmail.com</t>
+  </si>
+  <si>
+    <t>노수진</t>
+  </si>
+  <si>
+    <t>me_ruddlqslek@naver.com</t>
+  </si>
+  <si>
+    <t>홍나경</t>
   </si>
 </sst>
 </file>
@@ -45045,6 +45090,587 @@
         <v>35</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="2">
+        <v>45247.8722206713</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D500" s="3">
+        <v>2.01853E7</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H500" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I500" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J500" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K500" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L500" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M500" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N500" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O500" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P500" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q500" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R500" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S500" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="T500" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U500" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V500" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="W500" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X500" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y500" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z500" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA500" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2">
+        <v>45247.897958981484</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D501" s="3">
+        <v>2.0235188E7</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H501" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I501" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J501" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K501" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L501" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M501" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N501" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O501" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P501" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q501" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R501" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S501" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="T501" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="U501" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V501" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W501" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X501" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y501" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z501" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA501" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2">
+        <v>45247.89853309028</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D502" s="3">
+        <v>2.0232214E7</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F502" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H502" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I502" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J502" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K502" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L502" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M502" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N502" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O502" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P502" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q502" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R502" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S502" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T502" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U502" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="V502" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="W502" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X502" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y502" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z502" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA502" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2">
+        <v>45247.952593622686</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D503" s="3">
+        <v>2.0236764E7</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F503" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G503" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H503" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I503" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J503" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K503" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L503" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M503" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N503" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O503" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P503" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q503" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R503" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="S503" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="T503" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="U503" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="V503" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="W503" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X503" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y503" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z503" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA503" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2">
+        <v>45247.99914247685</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D504" s="3">
+        <v>2.0232437E7</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F504" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H504" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I504" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J504" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K504" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L504" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M504" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N504" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O504" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P504" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q504" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R504" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S504" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T504" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="U504" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="V504" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W504" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X504" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y504" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z504" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA504" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2">
+        <v>45248.00501759259</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D505" s="3">
+        <v>2.021713E7</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F505" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G505" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H505" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I505" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J505" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K505" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L505" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M505" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N505" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O505" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P505" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q505" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R505" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S505" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="T505" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="U505" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="V505" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W505" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X505" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y505" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z505" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA505" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2">
+        <v>45248.00968643518</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D506" s="3">
+        <v>2.023124E7</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F506" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G506" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H506" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I506" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J506" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K506" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L506" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M506" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N506" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O506" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P506" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q506" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R506" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S506" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="T506" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="U506" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="V506" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="W506" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X506" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y506" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z506" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA506" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
